--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Remise1Partie2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 2 Simon" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint 2 Etienne" sheetId="4" r:id="rId4"/>
+    <sheet name="Sprint 2 Pierre-Luc" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
   <si>
     <t>ID</t>
   </si>
@@ -737,8 +740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:F19"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1722,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1994,4 +1997,144 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="110.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
+        <v>5</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5">
+        <v>5</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
   <si>
     <t>ID</t>
   </si>
@@ -196,9 +196,6 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, je souhaite ouvrir les détails complets d'une sculpture afin d'enrichir mes connaissances</t>
-  </si>
-  <si>
-    <t>Lorsque l'utilisateur sélectionne une sculpture dans la liste par édition, les détails complets sont alors ouverts</t>
   </si>
   <si>
     <t>Lorsque l'utilisateur sélectionne "plus de détails" dans le pop-up de la carte, les détails complets sont alors ouverts</t>
@@ -738,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:F25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +759,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -918,7 +915,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1002,13 +999,13 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1062,7 +1059,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1074,55 +1071,55 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="10" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="6"/>
-      <c r="B25" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="10" t="s">
-        <v>72</v>
+      <c r="A25" s="4">
+        <v>6</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5">
+        <v>8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>45</v>
+      </c>
+      <c r="E25" s="5">
+        <v>6</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>6</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5">
-        <v>45</v>
-      </c>
-      <c r="E26" s="5">
-        <v>6</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>68</v>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
-      <c r="B28" s="7" t="s">
-        <v>7</v>
+      <c r="B28" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1132,207 +1129,207 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="6"/>
-      <c r="B29" s="9" t="s">
+      <c r="A29" s="4">
+        <v>7</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5">
         <v>8</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="10" t="s">
-        <v>74</v>
+      <c r="D29" s="5">
+        <v>45</v>
+      </c>
+      <c r="E29" s="5">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>7</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5">
-        <v>45</v>
-      </c>
-      <c r="E30" s="5">
-        <v>7</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>6</v>
+      <c r="A30" s="6"/>
+      <c r="B30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="10" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
-      <c r="B32" s="7" t="s">
-        <v>7</v>
+      <c r="B32" s="9" t="s">
+        <v>8</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="4">
         <v>8</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="10" t="s">
-        <v>74</v>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5">
+        <v>3</v>
+      </c>
+      <c r="D33" s="5">
+        <v>45</v>
+      </c>
+      <c r="E33" s="5">
+        <v>8</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>8</v>
-      </c>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5">
-        <v>3</v>
-      </c>
-      <c r="D34" s="5">
-        <v>45</v>
-      </c>
-      <c r="E34" s="5">
-        <v>8</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>32</v>
+      <c r="A34" s="6"/>
+      <c r="B34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="10" t="s">
-        <v>59</v>
+      <c r="A37" s="4">
+        <v>9</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5">
+        <v>3</v>
+      </c>
+      <c r="D37" s="5">
+        <v>25</v>
+      </c>
+      <c r="E37" s="5">
+        <v>9</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>9</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5">
-        <v>3</v>
-      </c>
-      <c r="D38" s="5">
-        <v>25</v>
-      </c>
-      <c r="E38" s="5">
-        <v>9</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>52</v>
+      <c r="A38" s="6"/>
+      <c r="B38" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="10" t="s">
-        <v>54</v>
+      <c r="A41" s="4">
+        <v>10</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5">
+        <v>3</v>
+      </c>
+      <c r="D41" s="5">
+        <v>25</v>
+      </c>
+      <c r="E41" s="5">
+        <v>10</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
-        <v>10</v>
-      </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5">
-        <v>3</v>
-      </c>
-      <c r="D42" s="5">
-        <v>25</v>
-      </c>
-      <c r="E42" s="5">
-        <v>10</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>47</v>
+      <c r="A42" s="6"/>
+      <c r="B42" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="10" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1344,139 +1341,139 @@
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="10" t="s">
-        <v>31</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="10" t="s">
-        <v>65</v>
+      <c r="A45" s="4">
+        <v>11</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5">
+        <v>5</v>
+      </c>
+      <c r="D45" s="5">
+        <v>40</v>
+      </c>
+      <c r="E45" s="5">
+        <v>11</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
-        <v>11</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5">
-        <v>5</v>
-      </c>
-      <c r="D46" s="5">
-        <v>40</v>
-      </c>
-      <c r="E46" s="5">
-        <v>11</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>24</v>
+      <c r="A46" s="6"/>
+      <c r="B46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="6"/>
       <c r="B47" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="10" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="10" t="s">
-        <v>64</v>
+      <c r="A49" s="4">
+        <v>12</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5">
+        <v>5</v>
+      </c>
+      <c r="D49" s="5">
+        <v>35</v>
+      </c>
+      <c r="E49" s="5">
+        <v>12</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
-        <v>12</v>
-      </c>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5">
-        <v>5</v>
-      </c>
-      <c r="D50" s="5">
-        <v>35</v>
-      </c>
-      <c r="E50" s="5">
-        <v>12</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>25</v>
+      <c r="A50" s="6"/>
+      <c r="B50" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="10" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1488,46 +1485,46 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="10" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="4">
+        <v>13</v>
+      </c>
+      <c r="B56" s="5"/>
+      <c r="C56" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="16">
         <v>10</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="10" t="s">
-        <v>60</v>
+      <c r="E56" s="5">
+        <v>13</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
-        <v>13</v>
-      </c>
-      <c r="B57" s="5"/>
-      <c r="C57" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D57" s="16">
-        <v>10</v>
-      </c>
-      <c r="E57" s="5">
-        <v>13</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>41</v>
+      <c r="A57" s="6"/>
+      <c r="B57" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="7"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="7" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" s="7"/>
-      <c r="D58" s="9"/>
+      <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="10" t="s">
         <v>75</v>
@@ -1536,186 +1533,174 @@
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="10" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="10" t="s">
-        <v>43</v>
+      <c r="A61" s="4">
+        <v>14</v>
+      </c>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5">
+        <v>3</v>
+      </c>
+      <c r="D61" s="5">
+        <v>25</v>
+      </c>
+      <c r="E61" s="5">
+        <v>14</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>14</v>
-      </c>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5">
+      <c r="A62" s="6"/>
+      <c r="B62" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
+        <v>15</v>
+      </c>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5">
         <v>3</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D63" s="5">
         <v>25</v>
       </c>
-      <c r="E62" s="5">
-        <v>14</v>
-      </c>
-      <c r="F62" s="8" t="s">
+      <c r="E63" s="5">
+        <v>15</v>
+      </c>
+      <c r="F63" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
-        <v>15</v>
-      </c>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5">
+      <c r="A64" s="6"/>
+      <c r="B64" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
+        <v>16</v>
+      </c>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5">
         <v>3</v>
       </c>
-      <c r="D64" s="5">
-        <v>25</v>
-      </c>
-      <c r="E64" s="5">
-        <v>15</v>
-      </c>
-      <c r="F64" s="8" t="s">
+      <c r="D65" s="5">
+        <v>20</v>
+      </c>
+      <c r="E65" s="5">
+        <v>16</v>
+      </c>
+      <c r="F65" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
-        <v>16</v>
-      </c>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5">
-        <v>3</v>
-      </c>
-      <c r="D66" s="5">
-        <v>20</v>
-      </c>
-      <c r="E66" s="5">
-        <v>16</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>79</v>
+      <c r="A66" s="6"/>
+      <c r="B66" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="6"/>
-      <c r="B68" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
-      <c r="F68" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="A68" s="4">
         <v>17</v>
       </c>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5">
-        <v>5</v>
-      </c>
-      <c r="D69" s="5">
+      <c r="B68" s="5"/>
+      <c r="C68" s="5">
+        <v>5</v>
+      </c>
+      <c r="D68" s="5">
         <v>35</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E68" s="5">
         <v>17</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="13"/>
-      <c r="F70" s="14" t="s">
+    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="11"/>
+      <c r="B69" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="15"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15">
-        <f>SUM(C2:C70)</f>
+    <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="15"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15">
+        <f>SUM(C2:C69)</f>
         <v>77</v>
       </c>
-      <c r="D71" s="15">
-        <f>SUM(D2:D70)</f>
+      <c r="D70" s="15">
+        <f>SUM(D2:D69)</f>
         <v>570</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1745,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1901,7 +1886,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1985,13 +1970,13 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2001,10 +1986,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,7 +2008,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2083,7 +2068,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2095,19 +2080,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
   <si>
     <t>ID</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>En tant qu'utilisateur, je souhaite être informé lorsque l'application ne possède pas les autorisations nécessaires afin de l'avertir d'ajouter les permissions</t>
+  </si>
+  <si>
+    <t>La notification indique que l'utilisateur est proche d'une sculpture</t>
+  </si>
+  <si>
+    <t>Lorsque la notification est appuyée, l'application ouvre sur la carte centrée sur la position de l'utilisateur</t>
   </si>
 </sst>
 </file>
@@ -735,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1183,410 +1189,404 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>8</v>
-      </c>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5">
-        <v>3</v>
-      </c>
-      <c r="D33" s="5">
-        <v>45</v>
-      </c>
-      <c r="E33" s="5">
-        <v>8</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>32</v>
+      <c r="A33" s="6"/>
+      <c r="B33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6"/>
       <c r="B34" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-      <c r="B35" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="10" t="s">
-        <v>34</v>
+      <c r="A35" s="4">
+        <v>8</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5">
+        <v>3</v>
+      </c>
+      <c r="D35" s="5">
+        <v>45</v>
+      </c>
+      <c r="E35" s="5">
+        <v>8</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="10" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>9</v>
-      </c>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5">
-        <v>3</v>
-      </c>
-      <c r="D37" s="5">
-        <v>25</v>
-      </c>
-      <c r="E37" s="5">
-        <v>9</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>52</v>
+      <c r="A37" s="6"/>
+      <c r="B37" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="10" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="10" t="s">
-        <v>65</v>
+      <c r="A39" s="4">
+        <v>9</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5">
+        <v>3</v>
+      </c>
+      <c r="D39" s="5">
+        <v>25</v>
+      </c>
+      <c r="E39" s="5">
+        <v>9</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
-        <v>10</v>
-      </c>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5">
-        <v>3</v>
-      </c>
-      <c r="D41" s="5">
-        <v>25</v>
-      </c>
-      <c r="E41" s="5">
-        <v>10</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>47</v>
+      <c r="A41" s="6"/>
+      <c r="B41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="10" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="10" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="10" t="s">
-        <v>31</v>
+      <c r="A43" s="4">
+        <v>10</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5">
+        <v>3</v>
+      </c>
+      <c r="D43" s="5">
+        <v>25</v>
+      </c>
+      <c r="E43" s="5">
+        <v>10</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="10" t="s">
-        <v>64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
-        <v>11</v>
-      </c>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5">
-        <v>5</v>
-      </c>
-      <c r="D45" s="5">
-        <v>40</v>
-      </c>
-      <c r="E45" s="5">
-        <v>11</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>24</v>
+      <c r="A45" s="6"/>
+      <c r="B45" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="6"/>
       <c r="B46" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="10" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="F47" s="10" t="s">
-        <v>45</v>
+      <c r="A47" s="4">
+        <v>11</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5">
+        <v>5</v>
+      </c>
+      <c r="D47" s="5">
+        <v>40</v>
+      </c>
+      <c r="E47" s="5">
+        <v>11</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6"/>
       <c r="B48" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="10" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
-        <v>12</v>
-      </c>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5">
-        <v>5</v>
-      </c>
-      <c r="D49" s="5">
-        <v>35</v>
-      </c>
-      <c r="E49" s="5">
-        <v>12</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>25</v>
+      <c r="A49" s="6"/>
+      <c r="B49" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="10" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="10" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="7"/>
-      <c r="F51" s="10" t="s">
-        <v>27</v>
+      <c r="A51" s="4">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5">
+        <v>5</v>
+      </c>
+      <c r="D51" s="5">
+        <v>35</v>
+      </c>
+      <c r="E51" s="5">
+        <v>12</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="10" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
-        <v>13</v>
-      </c>
-      <c r="B56" s="5"/>
-      <c r="C56" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D56" s="16">
+      <c r="A56" s="6"/>
+      <c r="B56" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E56" s="5">
-        <v>13</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>41</v>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="6"/>
-      <c r="B57" s="7" t="s">
-        <v>5</v>
+      <c r="B57" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="C57" s="7"/>
-      <c r="D57" s="9"/>
+      <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="10" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="10" t="s">
-        <v>75</v>
+      <c r="A58" s="4">
+        <v>13</v>
+      </c>
+      <c r="B58" s="5"/>
+      <c r="C58" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="16">
+        <v>10</v>
+      </c>
+      <c r="E58" s="5">
+        <v>13</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
+      <c r="D59" s="9"/>
       <c r="E59" s="7"/>
       <c r="F59" s="10" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="10" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
-        <v>14</v>
-      </c>
-      <c r="B61" s="5"/>
-      <c r="C61" s="5">
-        <v>3</v>
-      </c>
-      <c r="D61" s="5">
-        <v>25</v>
-      </c>
-      <c r="E61" s="5">
-        <v>14</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>76</v>
+      <c r="A61" s="6"/>
+      <c r="B61" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
-      <c r="B62" s="9" t="s">
-        <v>5</v>
+      <c r="B62" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B63" s="5"/>
       <c r="C63" s="5">
@@ -1596,10 +1596,10 @@
         <v>25</v>
       </c>
       <c r="E63" s="5">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,25 +1611,25 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5">
         <v>3</v>
       </c>
       <c r="D65" s="5">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E65" s="5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,66 +1641,96 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>16</v>
+      </c>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5">
+        <v>3</v>
+      </c>
+      <c r="D67" s="5">
+        <v>20</v>
+      </c>
+      <c r="E67" s="5">
+        <v>16</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="6"/>
+      <c r="B68" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="10" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="6"/>
+      <c r="B69" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>17</v>
       </c>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5">
-        <v>5</v>
-      </c>
-      <c r="D68" s="5">
+      <c r="B70" s="5"/>
+      <c r="C70" s="5">
+        <v>5</v>
+      </c>
+      <c r="D70" s="5">
         <v>35</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E70" s="5">
         <v>17</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="14" t="s">
+    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="11"/>
+      <c r="B71" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="14" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="15"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="15">
-        <f>SUM(C2:C69)</f>
+    <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="15"/>
+      <c r="B72" s="15"/>
+      <c r="C72" s="15">
+        <f>SUM(C2:C71)</f>
         <v>77</v>
       </c>
-      <c r="D70" s="15">
-        <f>SUM(D2:D69)</f>
+      <c r="D72" s="15">
+        <f>SUM(D2:D71)</f>
         <v>570</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1989,7 +2019,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F6"/>
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2090,24 +2120,208 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="114.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>7</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6"/>
+      <c r="B6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="122.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5">
+        <v>8</v>
+      </c>
+      <c r="D2" s="5">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5">
+        <v>6</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,9 @@
     <sheet name="Sprint 2 Simon" sheetId="3" r:id="rId3"/>
     <sheet name="Sprint 2 Etienne" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 2 Pierre-Luc" sheetId="5" r:id="rId5"/>
+    <sheet name="Sprint 3 Simon" sheetId="6" r:id="rId6"/>
+    <sheet name="Sprint 3 Étienne" sheetId="7" r:id="rId7"/>
+    <sheet name="Sprint 3 Pierre-Luc" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="120">
   <si>
     <t>ID</t>
   </si>
@@ -135,9 +138,6 @@
     <t>Le menu principal est toujours visible (carte, menu, évènement ...)</t>
   </si>
   <si>
-    <t>S'il y a des chargements de plus de 2 secondes, la page s'affiche</t>
-  </si>
-  <si>
     <t>L'application a besoin d'avoir accès à la géolocalisation</t>
   </si>
   <si>
@@ -271,6 +271,126 @@
   </si>
   <si>
     <t>Lorsque la notification est appuyée, l'application ouvre sur la carte centrée sur la position de l'utilisateur</t>
+  </si>
+  <si>
+    <t>S'il y a des chargements vers le backend (base de donnée) afficher un effet de loading.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant qu'utilisateur, je souhaite avoir un SplashScreen afin de rendre le depart de l'application plus agréable </t>
+  </si>
+  <si>
+    <t>Lors d'un cold boot, l'application doit avoir un SplashScreen avec le logo de Beauce art sur fond blanc</t>
+  </si>
+  <si>
+    <t>Une fois le boot terminer, le SplashScreen doit partir</t>
+  </si>
+  <si>
+    <t>L'application doit se rediriger vers le carte principale</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux avoir une page À Propos afin de pouvoir identifier les principaux collaborateurs du projets</t>
+  </si>
+  <si>
+    <t>Dans la page, il doit y avoir une liste des personnes qui ont participés à l'accomplissement du projets</t>
+  </si>
+  <si>
+    <t>L'utilisateur peux appuyer sur la personne  pour avoir ses coordonnées</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je souhaite pouvoir avoir les coordonnées des personnes ayant aidé au projet afin de les contacters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La liste doit être triée par le rôle des personnes dans le projets </t>
+  </si>
+  <si>
+    <t>L'utilisateur es rediriger vers les coordonnee une fois qu'il a appuyer sur la personne voulu dans la liste</t>
+  </si>
+  <si>
+    <t>Si disponible, l'utilisateur pourrais voir les coordonnée</t>
+  </si>
+  <si>
+    <t>S'il n'y a pas de coordonné liée à la personne, une Toast sera affiché pour avertir l'utilisateur de ce fait</t>
+  </si>
+  <si>
+    <t>Les coordonnées seront stocker dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Les coordonnées peuvent être un email, un téléphone, un cellulaire, un siteweb, etc.</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je souhaite faire un don à beauce art afin d'aider au developpement du Symposium</t>
+  </si>
+  <si>
+    <t>L'utilisateur doit naviger vers l'onglet Dons</t>
+  </si>
+  <si>
+    <t>L'utilisateur devra appuyer sur un bouton afin de remplir un formulaire</t>
+  </si>
+  <si>
+    <t>Le formulaire devra avoir les champs : nom et prenom, courriel et le montant du dons souhaité</t>
+  </si>
+  <si>
+    <t>Lorsque l'utilisateur appuye sur le bouton envoyer,  Il lui sera offert d'ouvrir une application de mail afin d'envoyer le email.</t>
+  </si>
+  <si>
+    <t>le mail sera alors préremplie pour faciliter l'utilisateur</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux avoir access à l'application en réalité augmenter afin de compléter mon expérience</t>
+  </si>
+  <si>
+    <t>Il devra avoir un icone dans le detail des sculpture pour ouvrir l'application en question</t>
+  </si>
+  <si>
+    <t>Si l'application n'est pas présente, renvoyer vers le appstore/playstore</t>
+  </si>
+  <si>
+    <t>Lors de la navigation entre les onglet de l'application, les informations nécésaire doivent se transmettre afin d'éviter de rapeler la base de donnée</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux que la carte soit foncitonnel sur iOS afin de pouvoir utiliser l'application sur iphone</t>
+  </si>
+  <si>
+    <t>Application doit render la carte sur iOS</t>
+  </si>
+  <si>
+    <t>Application doit build sur iOS</t>
+  </si>
+  <si>
+    <t>La carte doit avoir les même fonctionalités que sur Android</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux avoir access aux information de la base de donnée sur iOS, afin de pouvoir utiliser l'application sur iPhone</t>
+  </si>
+  <si>
+    <t>installer les dépendaces pour compatibilité firebase firestore sur iOS</t>
+  </si>
+  <si>
+    <t>La communication entre l'application et la base de donnée doit être possible sur iOS</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je souhaite avoir un SplashScreen afin de rendre le depart de l'application plus agréable sur iOS</t>
+  </si>
+  <si>
+    <t>Avoir le même SplashScreen que sur Android</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je souhaite avoir la même navigation dans l'application que sur android afin de rendre l'expérience identique sur android et ios</t>
+  </si>
+  <si>
+    <t>Application doit render la meme navigation sur iOS et Android</t>
+  </si>
+  <si>
+    <t>Les même onglet doivent être présent et les même écrans</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur je souhaite avoir des notification lorsque je suis proche d'une sculpture sur iOS, afin de rendre mon expérience sur iOS la même que sur android</t>
+  </si>
+  <si>
+    <t>Rendre l'application et la feature de notification possible sur ios</t>
+  </si>
+  <si>
+    <t>En tant que programmeur, je souhaite que mes données ne soit chargee qu'une seul fois afin de limiter le trafic internet et le nombre de lecture à la base de donnée</t>
   </si>
 </sst>
 </file>
@@ -308,7 +428,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,6 +455,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -411,8 +549,8 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -424,8 +562,8 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -437,7 +575,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -451,12 +589,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="4"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Accent5" xfId="3" builtinId="46"/>
@@ -741,17 +885,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="D79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="139.42578125" customWidth="1"/>
+    <col min="6" max="6" width="149.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -765,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -789,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,7 +1065,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -939,7 +1083,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -999,19 +1143,19 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1029,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1041,7 +1185,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,7 +1197,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,7 +1209,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1077,7 +1221,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1095,7 +1239,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1107,7 +1251,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1119,7 +1263,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1131,7 +1275,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1161,7 +1305,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,7 +1317,7 @@
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,7 +1329,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,7 +1341,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1209,7 +1353,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,7 +1407,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,7 +1425,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1293,7 +1437,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,7 +1449,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,7 +1461,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1335,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,7 +1515,7 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -1401,7 +1545,7 @@
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1413,7 +1557,7 @@
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,7 +1569,7 @@
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1491,7 +1635,7 @@
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,7 +1659,7 @@
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,17 +1667,17 @@
         <v>13</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="D58" s="16">
+      <c r="C58" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D58" s="12">
         <v>10</v>
       </c>
       <c r="E58" s="5">
         <v>13</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -1545,7 +1689,7 @@
       <c r="D59" s="9"/>
       <c r="E59" s="7"/>
       <c r="F59" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -1557,7 +1701,7 @@
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -1569,7 +1713,7 @@
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -1581,7 +1725,7 @@
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -1599,7 +1743,7 @@
         <v>14</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -1611,7 +1755,7 @@
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,7 +1773,7 @@
         <v>15</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1641,7 +1785,7 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -1659,7 +1803,7 @@
         <v>16</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -1671,7 +1815,7 @@
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -1683,7 +1827,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -1701,36 +1845,576 @@
         <v>17</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
-      <c r="F71" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="15"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="15">
-        <f>SUM(C2:C71)</f>
-        <v>77</v>
-      </c>
-      <c r="D72" s="15">
-        <f>SUM(D2:D71)</f>
-        <v>570</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="6"/>
+      <c r="B71" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>18</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="17">
+        <v>3</v>
+      </c>
+      <c r="D72" s="17">
+        <v>10</v>
+      </c>
+      <c r="E72" s="17">
+        <v>18</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="6"/>
+      <c r="B73" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="6"/>
+      <c r="B74" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="6"/>
+      <c r="B75" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
+        <v>19</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="C76" s="15">
+        <v>5</v>
+      </c>
+      <c r="D76" s="15">
+        <v>25</v>
+      </c>
+      <c r="E76" s="15">
+        <v>19</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="18"/>
+      <c r="B77" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="18"/>
+      <c r="B78" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="19"/>
+      <c r="D78" s="19"/>
+      <c r="E78" s="19"/>
+      <c r="F78" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="18"/>
+      <c r="B79" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="19"/>
+      <c r="D79" s="19"/>
+      <c r="E79" s="19"/>
+      <c r="F79" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
+        <v>20</v>
+      </c>
+      <c r="B80" s="15"/>
+      <c r="C80" s="15">
+        <v>5</v>
+      </c>
+      <c r="D80" s="15">
+        <v>15</v>
+      </c>
+      <c r="E80" s="15">
+        <v>20</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="18"/>
+      <c r="B81" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C81" s="19"/>
+      <c r="D81" s="19"/>
+      <c r="E81" s="19"/>
+      <c r="F81" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="18"/>
+      <c r="B82" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="19"/>
+      <c r="D82" s="19"/>
+      <c r="E82" s="19"/>
+      <c r="F82" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="18"/>
+      <c r="B83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="19"/>
+      <c r="D83" s="19"/>
+      <c r="E83" s="19"/>
+      <c r="F83" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="18"/>
+      <c r="B84" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="19"/>
+      <c r="D84" s="19"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="18"/>
+      <c r="B85" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" s="19"/>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
+        <v>21</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
+      <c r="D86" s="15">
+        <v>20</v>
+      </c>
+      <c r="E86" s="15">
+        <v>21</v>
+      </c>
+      <c r="F86" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="18"/>
+      <c r="B87" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="18"/>
+      <c r="B88" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="19"/>
+      <c r="D88" s="19"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="18"/>
+      <c r="B89" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="19"/>
+      <c r="D89" s="19"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="18"/>
+      <c r="B90" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="18"/>
+      <c r="B91" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
+        <v>22</v>
+      </c>
+      <c r="B92" s="15"/>
+      <c r="C92" s="15">
+        <v>5</v>
+      </c>
+      <c r="D92" s="15">
+        <v>15</v>
+      </c>
+      <c r="E92" s="15">
+        <v>22</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="18"/>
+      <c r="B93" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="19"/>
+      <c r="D93" s="19"/>
+      <c r="E93" s="19"/>
+      <c r="F93" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="18"/>
+      <c r="B94" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
+        <v>23</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15">
+        <v>5</v>
+      </c>
+      <c r="D95" s="15">
+        <v>25</v>
+      </c>
+      <c r="E95" s="15">
+        <v>23</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="18"/>
+      <c r="B96" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C96" s="19"/>
+      <c r="D96" s="19"/>
+      <c r="E96" s="19"/>
+      <c r="F96" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
+        <v>24</v>
+      </c>
+      <c r="B97" s="15"/>
+      <c r="C97" s="15">
+        <v>3</v>
+      </c>
+      <c r="D97" s="15">
+        <v>20</v>
+      </c>
+      <c r="E97" s="15">
+        <v>24</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="18"/>
+      <c r="B98" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="19"/>
+      <c r="D98" s="19"/>
+      <c r="E98" s="19"/>
+      <c r="F98" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="18"/>
+      <c r="B99" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="19"/>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="18"/>
+      <c r="B100" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="19"/>
+      <c r="D100" s="19"/>
+      <c r="E100" s="19"/>
+      <c r="F100" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
+        <v>25</v>
+      </c>
+      <c r="B101" s="15"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="15">
+        <v>15</v>
+      </c>
+      <c r="E101" s="15"/>
+      <c r="F101" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
+      <c r="F102" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19"/>
+      <c r="E103" s="19"/>
+      <c r="F103" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
+        <v>26</v>
+      </c>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15">
+        <v>1</v>
+      </c>
+      <c r="D104" s="15">
+        <v>10</v>
+      </c>
+      <c r="E104" s="15">
+        <v>26</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
+        <v>27</v>
+      </c>
+      <c r="B106" s="15"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="15">
+        <v>20</v>
+      </c>
+      <c r="E106" s="15">
+        <v>27</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="19"/>
+      <c r="D107" s="19"/>
+      <c r="E107" s="19"/>
+      <c r="F107" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="19"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="19"/>
+      <c r="D109" s="19"/>
+      <c r="E109" s="19"/>
+      <c r="F109" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
+        <v>28</v>
+      </c>
+      <c r="B110" s="15"/>
+      <c r="C110" s="15">
+        <v>8</v>
+      </c>
+      <c r="D110" s="15">
+        <v>20</v>
+      </c>
+      <c r="E110" s="15">
+        <v>28</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="21"/>
+      <c r="B111" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C111" s="22"/>
+      <c r="D111" s="22"/>
+      <c r="E111" s="22"/>
+      <c r="F111" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11">
+        <f>SUM(C2:C111)</f>
+        <v>120</v>
+      </c>
+      <c r="D112" s="11">
+        <f>SUM(D2:D111)</f>
+        <v>765</v>
+      </c>
+      <c r="E112" s="11"/>
+      <c r="F112" s="11"/>
+    </row>
+    <row r="113" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1760,7 +2444,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1784,7 +2468,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1916,7 +2600,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1934,7 +2618,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1994,19 +2678,19 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2038,7 +2722,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2062,7 +2746,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2074,7 +2758,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2086,7 +2770,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2098,7 +2782,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2110,7 +2794,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2178,7 +2862,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2190,7 +2874,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2202,7 +2886,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2214,7 +2898,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2226,7 +2910,7 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2238,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2942,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2282,7 +2966,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2294,7 +2978,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2306,7 +2990,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2318,7 +3002,112 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,23 +5,25 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint1" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint 2 Simon" sheetId="3" r:id="rId3"/>
-    <sheet name="Sprint 2 Etienne" sheetId="4" r:id="rId4"/>
-    <sheet name="Sprint 2 Pierre-Luc" sheetId="5" r:id="rId5"/>
-    <sheet name="Sprint 3 Simon" sheetId="6" r:id="rId6"/>
-    <sheet name="Sprint 3 Étienne" sheetId="7" r:id="rId7"/>
-    <sheet name="Sprint 3 Pierre-Luc" sheetId="8" r:id="rId8"/>
+    <sheet name="Sprint 2 Equipe" sheetId="9" r:id="rId4"/>
+    <sheet name="Sprint 2 Etienne" sheetId="4" r:id="rId5"/>
+    <sheet name="Sprint 2 Pierre-Luc" sheetId="5" r:id="rId6"/>
+    <sheet name="Sprint 3 Simon" sheetId="6" r:id="rId7"/>
+    <sheet name="Sprint 3 Étienne" sheetId="7" r:id="rId8"/>
+    <sheet name="Sprint 3 Pierre-Luc" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -153,15 +155,6 @@
     <t>On ne reçoit pas de notification lorsque l'utilisateur est présentement dans la carte de l'application</t>
   </si>
   <si>
-    <t>En tant que donateur, je souhaite pouvoir faire des dons afin d'aider Beauce Art</t>
-  </si>
-  <si>
-    <t>Le donateur doit inscrire son nom et prénom</t>
-  </si>
-  <si>
-    <t>Le donateur doit inscrire son adresse courriel</t>
-  </si>
-  <si>
     <t>La date et le nom de l'événement et les places disponibles seront visibles</t>
   </si>
   <si>
@@ -228,9 +221,6 @@
     <t>La liste des sculptures est générée dynamiquement avec les informations contenues dans la base de données</t>
   </si>
   <si>
-    <t>5+</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur, je souhaite que l'application détecte si je suis près d'une sculpture afin de savoir si je suis proche d'une sculpture</t>
   </si>
   <si>
@@ -252,12 +242,6 @@
     <t>L'application vérifie même lorsqu'elle est femée</t>
   </si>
   <si>
-    <t>Le donateur ne peut pas faire des dons anonymes</t>
-  </si>
-  <si>
-    <t>Le donateur doit pouvoir choisir la somme d'argent qu'il souhaite donner</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur, je souhaite être informé lorsque la géolocalisation est désactivée afin de savoir pourquoi sa position n'est pas ajustée dans la carte</t>
   </si>
   <si>
@@ -294,30 +278,9 @@
     <t>Dans la page, il doit y avoir une liste des personnes qui ont participés à l'accomplissement du projets</t>
   </si>
   <si>
-    <t>L'utilisateur peux appuyer sur la personne  pour avoir ses coordonnées</t>
-  </si>
-  <si>
-    <t>En tant qu'utilisateur je souhaite pouvoir avoir les coordonnées des personnes ayant aidé au projet afin de les contacters</t>
-  </si>
-  <si>
     <t xml:space="preserve">La liste doit être triée par le rôle des personnes dans le projets </t>
   </si>
   <si>
-    <t>L'utilisateur es rediriger vers les coordonnee une fois qu'il a appuyer sur la personne voulu dans la liste</t>
-  </si>
-  <si>
-    <t>Si disponible, l'utilisateur pourrais voir les coordonnée</t>
-  </si>
-  <si>
-    <t>S'il n'y a pas de coordonné liée à la personne, une Toast sera affiché pour avertir l'utilisateur de ce fait</t>
-  </si>
-  <si>
-    <t>Les coordonnées seront stocker dans la base de donnée</t>
-  </si>
-  <si>
-    <t>Les coordonnées peuvent être un email, un téléphone, un cellulaire, un siteweb, etc.</t>
-  </si>
-  <si>
     <t>En tant qu'utilisateur, je souhaite faire un don à beauce art afin d'aider au developpement du Symposium</t>
   </si>
   <si>
@@ -391,6 +354,117 @@
   </si>
   <si>
     <t>En tant que programmeur, je souhaite que mes données ne soit chargee qu'une seul fois afin de limiter le trafic internet et le nombre de lecture à la base de donnée</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux qu'à l'ouverture de la carte lorsque je suis proche d'une sculpture la carte zoom sur ma position afin de pouvoir voir les sculptures à proximité</t>
+  </si>
+  <si>
+    <t>Le zoom se fait lorsque je suis à 25m d'une sculpture</t>
+  </si>
+  <si>
+    <t>Le zoom se fait centré sur la position de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Le zoom se fait lorsque à la première ouverture de la carte</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux un lien"En savoir plus" dans la page détail des sculptures afin de pouvoir être rediriger de façon adéquate</t>
+  </si>
+  <si>
+    <t>Redirige vers la page web de la sculpture sur le site de Beauce Art</t>
+  </si>
+  <si>
+    <t>Le lien est représenté par un bouton</t>
+  </si>
+  <si>
+    <t>Dans l'app admin, l'admin doit clicker sur le menu ''Ajouter une sculpture"</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir ajouter une sculpture à la base de donnée afin de pouvoir la voir dans la carte</t>
+  </si>
+  <si>
+    <t>Les champs obligatoire seront : Nom de la sculpture, Annee de la thematique, nom de la thematique, nom de l'artiste, materiaux utilisé, démarche artistique</t>
+  </si>
+  <si>
+    <t>Un bouton joindre une image sera disponible</t>
+  </si>
+  <si>
+    <t>Un bouton joindre un thumbnail sera disponible</t>
+  </si>
+  <si>
+    <t>Confirmer l'enregistrement en cliquant sur Enregistrer</t>
+  </si>
+  <si>
+    <t>Un formulaire sera affiché contenant plusieurs champs obligatoire</t>
+  </si>
+  <si>
+    <t>Annuler l'enregistrement en cliquant sur annuler</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En tant qu'administrateur, je veux pouvoir ajouter des nouvelles afin d'avoir un fil d'actualité dans l'application </t>
+  </si>
+  <si>
+    <t>Dans l'app admin, un onglet Ajouter des nouvelles sera présent</t>
+  </si>
+  <si>
+    <t>Un formulaire sera présent avec des champs obligatoires à remplir</t>
+  </si>
+  <si>
+    <t>Champs: Nom de la nouvelles, Lien externe</t>
+  </si>
+  <si>
+    <t>Un bouton pour joindre une image à la nouvelles</t>
+  </si>
+  <si>
+    <t>Cliquer sur enregistrer pour confirmer l'envoie de la nouvelle</t>
+  </si>
+  <si>
+    <t>Cliquer sur annuler pour interrompre l'ajout de la nouvelle</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir modifier une nouvelle afin de corriger des erreures commisent lors de la création</t>
+  </si>
+  <si>
+    <t>Avoir une liste des nouvelles déjà dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Pouvoir cliquer sur une nouvelle pour pouvoir la modifier</t>
+  </si>
+  <si>
+    <t>Avoir les champs disponible dans l'objets (nom,dates,lien externe et lien de l'image)</t>
+  </si>
+  <si>
+    <t>En tant qu'Administrateur, je veux pouvoir modifier une sculpture afin de pouvoir corriger des erreurs présente dans les sculptures</t>
+  </si>
+  <si>
+    <t>Avoir une liste des sculptures présentes</t>
+  </si>
+  <si>
+    <t>Pouvoir cliquer sur une sculpture pour modifier ces champs</t>
+  </si>
+  <si>
+    <t>Arriver sur le formulaire remplie, pouvoir changer les champs pour faire els corrections</t>
+  </si>
+  <si>
+    <t>Cliquer sur enregistrer pour sauvegarder les changement</t>
+  </si>
+  <si>
+    <t>Cliquer sur annuler pour annuler les changements</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>Le menu principal s'affiche dans la partie inférieure de l'écran</t>
+  </si>
+  <si>
+    <t>Le menu principal contient: Carte, Don, Nouvelle, Sculptures, À propos</t>
+  </si>
+  <si>
+    <t>Les sculptures doivent être cordées par édition (drop-down)</t>
+  </si>
+  <si>
+    <t>Lorsque l'utilisateur appuie sur une sculpture, l'écran des détails s'ouvrent</t>
   </si>
 </sst>
 </file>
@@ -428,7 +502,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +546,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +655,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -590,7 +670,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="4"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -601,6 +680,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="3" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20 % - Accent5" xfId="3" builtinId="46"/>
@@ -885,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,7 +1029,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -933,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,7 +1185,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1083,7 +1203,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1143,19 +1263,19 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -1173,7 +1293,7 @@
         <v>5</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,7 +1305,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,7 +1317,7 @@
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -1209,7 +1329,7 @@
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -1221,7 +1341,7 @@
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -1239,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1251,7 +1371,7 @@
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -1263,7 +1383,7 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -1275,7 +1395,7 @@
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1305,7 +1425,7 @@
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -1329,7 +1449,7 @@
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -1341,7 +1461,7 @@
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -1353,7 +1473,7 @@
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -1407,7 +1527,7 @@
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -1425,7 +1545,7 @@
         <v>9</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -1437,7 +1557,7 @@
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -1449,7 +1569,7 @@
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -1461,7 +1581,7 @@
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -1479,7 +1599,7 @@
         <v>10</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -1515,151 +1635,151 @@
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="A47" s="22">
         <v>11</v>
       </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5">
-        <v>5</v>
-      </c>
-      <c r="D47" s="5">
+      <c r="B47" s="23"/>
+      <c r="C47" s="23">
+        <v>5</v>
+      </c>
+      <c r="D47" s="23">
         <v>40</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="23">
         <v>11</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="24" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="10" t="s">
-        <v>43</v>
+      <c r="A48" s="25"/>
+      <c r="B48" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="28" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="7"/>
-      <c r="F49" s="10" t="s">
-        <v>44</v>
+      <c r="A49" s="25"/>
+      <c r="B49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="7"/>
-      <c r="F50" s="10" t="s">
-        <v>62</v>
+      <c r="A50" s="25"/>
+      <c r="B50" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="28" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="A51" s="22">
         <v>12</v>
       </c>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5">
-        <v>5</v>
-      </c>
-      <c r="D51" s="5">
+      <c r="B51" s="23"/>
+      <c r="C51" s="23">
+        <v>5</v>
+      </c>
+      <c r="D51" s="23">
         <v>35</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="23">
         <v>12</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="24" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="10" t="s">
+      <c r="A52" s="25"/>
+      <c r="B52" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="28" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="10" t="s">
+      <c r="A53" s="25"/>
+      <c r="B53" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="10" t="s">
+      <c r="A54" s="25"/>
+      <c r="B54" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="27"/>
+      <c r="F54" s="28" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="9" t="s">
+      <c r="A55" s="25"/>
+      <c r="B55" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="10" t="s">
-        <v>45</v>
+      <c r="C55" s="27"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="27"/>
+      <c r="F55" s="28" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="9" t="s">
+      <c r="A56" s="25"/>
+      <c r="B56" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="E56" s="7"/>
-      <c r="F56" s="10" t="s">
+      <c r="C56" s="27"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="28" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="25"/>
+      <c r="B57" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="10" t="s">
-        <v>58</v>
+      <c r="C57" s="27"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="27"/>
+      <c r="F57" s="28" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,113 +1787,119 @@
         <v>13</v>
       </c>
       <c r="B58" s="5"/>
-      <c r="C58" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="12">
-        <v>10</v>
+      <c r="C58" s="5">
+        <v>3</v>
+      </c>
+      <c r="D58" s="5">
+        <v>25</v>
       </c>
       <c r="E58" s="5">
         <v>13</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C59" s="7"/>
-      <c r="D59" s="9"/>
+      <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="10" t="s">
-        <v>73</v>
+        <v>37</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="10" t="s">
-        <v>74</v>
+      <c r="A60" s="4">
+        <v>14</v>
+      </c>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5">
+        <v>3</v>
+      </c>
+      <c r="D60" s="5">
+        <v>25</v>
+      </c>
+      <c r="E60" s="5">
+        <v>14</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="6"/>
-      <c r="B61" s="7" t="s">
-        <v>8</v>
+      <c r="B61" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="10" t="s">
-        <v>42</v>
+      <c r="A62" s="4">
+        <v>15</v>
+      </c>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5">
+        <v>3</v>
+      </c>
+      <c r="D62" s="5">
+        <v>20</v>
+      </c>
+      <c r="E62" s="5">
+        <v>15</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
-        <v>14</v>
-      </c>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5">
-        <v>3</v>
-      </c>
-      <c r="D63" s="5">
-        <v>25</v>
-      </c>
-      <c r="E63" s="5">
-        <v>14</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>75</v>
+      <c r="A63" s="6"/>
+      <c r="B63" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="5"/>
       <c r="C65" s="5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" s="5">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E65" s="5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -1785,636 +1911,896 @@
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="10" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
-        <v>16</v>
-      </c>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5">
-        <v>3</v>
-      </c>
-      <c r="D67" s="5">
-        <v>20</v>
-      </c>
-      <c r="E67" s="5">
-        <v>16</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>77</v>
+      <c r="A67" s="16">
+        <v>17</v>
+      </c>
+      <c r="B67" s="12"/>
+      <c r="C67" s="16">
+        <v>1</v>
+      </c>
+      <c r="D67" s="16">
+        <v>5</v>
+      </c>
+      <c r="E67" s="16">
+        <v>17</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="6"/>
-      <c r="B68" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C68" s="7"/>
-      <c r="D68" s="7"/>
-      <c r="E68" s="7"/>
+      <c r="B68" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
       <c r="F68" s="10" t="s">
-        <v>35</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="6"/>
-      <c r="B69" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="7"/>
-      <c r="D69" s="7"/>
-      <c r="E69" s="7"/>
+      <c r="B69" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
       <c r="F69" s="10" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
-        <v>17</v>
-      </c>
-      <c r="B70" s="5"/>
-      <c r="C70" s="5">
-        <v>5</v>
-      </c>
-      <c r="D70" s="5">
+      <c r="A70" s="6"/>
+      <c r="B70" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="13">
+        <v>18</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14">
+        <v>5</v>
+      </c>
+      <c r="D71" s="14">
+        <v>25</v>
+      </c>
+      <c r="E71" s="14">
+        <v>18</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="17"/>
+      <c r="B72" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="13">
+        <v>19</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14">
+        <v>5</v>
+      </c>
+      <c r="D74" s="14">
+        <v>20</v>
+      </c>
+      <c r="E74" s="14">
+        <v>19</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="13">
+        <v>20</v>
+      </c>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14">
+        <v>5</v>
+      </c>
+      <c r="D78" s="14">
+        <v>20</v>
+      </c>
+      <c r="E78" s="14">
+        <v>20</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="17"/>
+      <c r="B79" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="17"/>
+      <c r="B80" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="13">
+        <v>21</v>
+      </c>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14">
+        <v>8</v>
+      </c>
+      <c r="D81" s="14">
         <v>35</v>
       </c>
-      <c r="E70" s="5">
-        <v>17</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="6"/>
-      <c r="B71" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C71" s="7"/>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="17">
-        <v>18</v>
-      </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="17">
+      <c r="E81" s="13">
+        <v>21</v>
+      </c>
+      <c r="F81" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="17"/>
+      <c r="B82" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="17"/>
+      <c r="B83" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="17"/>
+      <c r="B84" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="17"/>
+      <c r="B85" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="17"/>
+      <c r="B86" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="17"/>
+      <c r="B87" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="13">
+        <v>22</v>
+      </c>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14">
+        <v>8</v>
+      </c>
+      <c r="D89" s="14">
+        <v>35</v>
+      </c>
+      <c r="E89" s="13">
+        <v>22</v>
+      </c>
+      <c r="F89" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="17"/>
+      <c r="B90" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="17"/>
+      <c r="B91" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="9" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="17"/>
+      <c r="B92" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="17"/>
+      <c r="B93" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="17"/>
+      <c r="B94" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="17"/>
+      <c r="B95" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="13">
+        <v>23</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14">
+        <v>5</v>
+      </c>
+      <c r="D96" s="14">
+        <v>30</v>
+      </c>
+      <c r="E96" s="13">
+        <v>23</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="17"/>
+      <c r="B97" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="17"/>
+      <c r="B98" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="17"/>
+      <c r="B99" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="13">
+        <v>24</v>
+      </c>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14">
+        <v>5</v>
+      </c>
+      <c r="D100" s="14">
+        <v>30</v>
+      </c>
+      <c r="E100" s="13">
+        <v>24</v>
+      </c>
+      <c r="F100" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="17"/>
+      <c r="B101" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+      <c r="B102" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="17"/>
+      <c r="B103" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="17"/>
+      <c r="B104" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="13">
+        <v>25</v>
+      </c>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14">
+        <v>8</v>
+      </c>
+      <c r="D106" s="14">
+        <v>20</v>
+      </c>
+      <c r="E106" s="14">
+        <v>25</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="17"/>
+      <c r="B107" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="17"/>
+      <c r="B109" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="17"/>
+      <c r="B110" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="17"/>
+      <c r="B111" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="13">
+        <v>26</v>
+      </c>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14">
+        <v>5</v>
+      </c>
+      <c r="D112" s="14">
+        <v>15</v>
+      </c>
+      <c r="E112" s="14">
+        <v>26</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="17"/>
+      <c r="B113" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C113" s="18"/>
+      <c r="D113" s="18"/>
+      <c r="E113" s="18"/>
+      <c r="F113" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="18"/>
+      <c r="D114" s="18"/>
+      <c r="E114" s="18"/>
+      <c r="F114" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="13">
+        <v>27</v>
+      </c>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14">
+        <v>5</v>
+      </c>
+      <c r="D115" s="14">
+        <v>25</v>
+      </c>
+      <c r="E115" s="14">
+        <v>27</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="17"/>
+      <c r="B116" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C116" s="18"/>
+      <c r="D116" s="18"/>
+      <c r="E116" s="18"/>
+      <c r="F116" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="13">
+        <v>28</v>
+      </c>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14">
         <v>3</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D117" s="14">
+        <v>20</v>
+      </c>
+      <c r="E117" s="14">
+        <v>28</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="17"/>
+      <c r="B118" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="18"/>
+      <c r="D118" s="18"/>
+      <c r="E118" s="18"/>
+      <c r="F118" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="17"/>
+      <c r="B119" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="18"/>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
+      <c r="B120" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120" s="18"/>
+      <c r="D120" s="18"/>
+      <c r="E120" s="18"/>
+      <c r="F120" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="13">
+        <v>29</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14">
+        <v>15</v>
+      </c>
+      <c r="E121" s="14">
+        <v>29</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="17"/>
+      <c r="B122" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C122" s="18"/>
+      <c r="D122" s="18"/>
+      <c r="E122" s="18"/>
+      <c r="F122" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="18"/>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="13">
+        <v>30</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14">
+        <v>1</v>
+      </c>
+      <c r="D124" s="14">
         <v>10</v>
       </c>
-      <c r="E72" s="17">
-        <v>18</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="6"/>
-      <c r="B73" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="6"/>
-      <c r="B74" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="10" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="6"/>
-      <c r="B75" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="14">
-        <v>19</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="C76" s="15">
-        <v>5</v>
-      </c>
-      <c r="D76" s="15">
-        <v>25</v>
-      </c>
-      <c r="E76" s="15">
-        <v>19</v>
-      </c>
-      <c r="F76" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="18"/>
-      <c r="B77" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C77" s="19"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
-      <c r="F77" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="18"/>
-      <c r="B78" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
-      <c r="F78" s="10" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="18"/>
-      <c r="B79" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C79" s="19"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
-      <c r="F79" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="14">
+      <c r="E124" s="14">
+        <v>30</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="17"/>
+      <c r="B125" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C125" s="18"/>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="13">
+        <v>31</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14">
         <v>20</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15">
-        <v>5</v>
-      </c>
-      <c r="D80" s="15">
-        <v>15</v>
-      </c>
-      <c r="E80" s="15">
+      <c r="E126" s="14">
+        <v>31</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="17"/>
+      <c r="B127" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="18"/>
+      <c r="D127" s="18"/>
+      <c r="E127" s="18"/>
+      <c r="F127" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="17"/>
+      <c r="B128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="17"/>
+      <c r="B129" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129" s="18"/>
+      <c r="D129" s="18"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="13">
+        <v>32</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14">
+        <v>8</v>
+      </c>
+      <c r="D130" s="14">
         <v>20</v>
       </c>
-      <c r="F80" s="13" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="18"/>
-      <c r="B81" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
-      <c r="F81" s="10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="18"/>
-      <c r="B82" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="19"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
-      <c r="F82" s="10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="18"/>
-      <c r="B83" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="18"/>
-      <c r="B84" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C84" s="19"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="10" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="18"/>
-      <c r="B85" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C85" s="19"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="14">
-        <v>21</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15">
-        <v>8</v>
-      </c>
-      <c r="D86" s="15">
-        <v>20</v>
-      </c>
-      <c r="E86" s="15">
-        <v>21</v>
-      </c>
-      <c r="F86" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="18"/>
-      <c r="B87" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="10" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="18"/>
-      <c r="B88" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="19"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="18"/>
-      <c r="B89" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C89" s="19"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="18"/>
-      <c r="B90" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C90" s="19"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="18"/>
-      <c r="B91" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="14">
-        <v>22</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15">
-        <v>5</v>
-      </c>
-      <c r="D92" s="15">
-        <v>15</v>
-      </c>
-      <c r="E92" s="15">
-        <v>22</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="18"/>
-      <c r="B93" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C93" s="19"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
-      <c r="F93" s="10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="18"/>
-      <c r="B94" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="19"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
-      <c r="F94" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="14">
-        <v>23</v>
-      </c>
-      <c r="B95" s="15"/>
-      <c r="C95" s="15">
-        <v>5</v>
-      </c>
-      <c r="D95" s="15">
-        <v>25</v>
-      </c>
-      <c r="E95" s="15">
-        <v>23</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="18"/>
-      <c r="B96" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C96" s="19"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
-      <c r="F96" s="10" t="s">
+      <c r="E130" s="14">
+        <v>32</v>
+      </c>
+      <c r="F130" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="14">
-        <v>24</v>
-      </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15">
-        <v>3</v>
-      </c>
-      <c r="D97" s="15">
-        <v>20</v>
-      </c>
-      <c r="E97" s="15">
-        <v>24</v>
-      </c>
-      <c r="F97" s="13" t="s">
+    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="20"/>
+      <c r="B131" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21"/>
+      <c r="E131" s="21"/>
+      <c r="F131" s="10" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="18"/>
-      <c r="B98" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C98" s="19"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
-      <c r="F98" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100" s="19"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
-      <c r="F100" s="10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="14">
-        <v>25</v>
-      </c>
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15">
-        <v>15</v>
-      </c>
-      <c r="E101" s="15"/>
-      <c r="F101" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="18"/>
-      <c r="B102" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C102" s="19"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
-      <c r="F102" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="18"/>
-      <c r="B103" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="19"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
-      <c r="F103" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="14">
-        <v>26</v>
-      </c>
-      <c r="B104" s="15"/>
-      <c r="C104" s="15">
-        <v>1</v>
-      </c>
-      <c r="D104" s="15">
-        <v>10</v>
-      </c>
-      <c r="E104" s="15">
-        <v>26</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="18"/>
-      <c r="B105" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C105" s="19"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
-      <c r="F105" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="14">
-        <v>27</v>
-      </c>
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15">
-        <v>20</v>
-      </c>
-      <c r="E106" s="15">
-        <v>27</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A107" s="18"/>
-      <c r="B107" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C107" s="19"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
-      <c r="F107" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="18"/>
-      <c r="B108" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="19"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="18"/>
-      <c r="B109" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109" s="19"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
-      <c r="F109" s="10" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="14">
-        <v>28</v>
-      </c>
-      <c r="B110" s="15"/>
-      <c r="C110" s="15">
-        <v>8</v>
-      </c>
-      <c r="D110" s="15">
-        <v>20</v>
-      </c>
-      <c r="E110" s="15">
-        <v>28</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="21"/>
-      <c r="B111" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C111" s="22"/>
-      <c r="D111" s="22"/>
-      <c r="E111" s="22"/>
-      <c r="F111" s="10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="11">
-        <f>SUM(C2:C111)</f>
-        <v>120</v>
-      </c>
-      <c r="D112" s="11">
-        <f>SUM(D2:D111)</f>
-        <v>765</v>
-      </c>
-      <c r="E112" s="11"/>
-      <c r="F112" s="11"/>
-    </row>
-    <row r="113" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11">
+        <f>SUM(C2:C131)</f>
+        <v>149</v>
+      </c>
+      <c r="D132" s="11">
+        <f>SUM(D2:D131)</f>
+        <v>905</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2444,7 +2830,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2468,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2600,7 +2986,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -2618,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -2678,19 +3064,19 @@
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2700,10 +3086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2722,7 +3108,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2746,7 +3132,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2758,7 +3144,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2770,7 +3156,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2782,7 +3168,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2794,7 +3180,61 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="10" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
+        <v>8</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31">
+        <v>3</v>
+      </c>
+      <c r="D7" s="31">
+        <v>45</v>
+      </c>
+      <c r="E7" s="31">
+        <v>8</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="36" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="32"/>
+      <c r="B10" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="36" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2804,10 +3244,102 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="74.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="54">
+        <v>10</v>
+      </c>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55">
+        <v>3</v>
+      </c>
+      <c r="D2" s="55">
+        <v>25</v>
+      </c>
+      <c r="E2" s="55">
+        <v>10</v>
+      </c>
+      <c r="F2" s="58" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="56"/>
+      <c r="B3" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="60" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="56"/>
+      <c r="B4" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="60" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="56"/>
+      <c r="B5" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2826,7 +3358,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2862,7 +3394,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2886,7 +3418,7 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -2898,7 +3430,7 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="10" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2910,7 +3442,73 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="10" t="s">
-        <v>79</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="37">
+        <v>9</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38">
+        <v>3</v>
+      </c>
+      <c r="D8" s="38">
+        <v>25</v>
+      </c>
+      <c r="E8" s="38">
+        <v>9</v>
+      </c>
+      <c r="F8" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="39"/>
+      <c r="B9" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="43" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="39"/>
+      <c r="B10" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="43" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2918,12 +3516,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2942,7 +3540,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -2966,7 +3564,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -2978,7 +3576,7 @@
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -2990,7 +3588,7 @@
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
       <c r="F4" s="10" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3002,42 +3600,37 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="44">
+        <v>14</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
+      <c r="D6" s="45">
+        <v>25</v>
+      </c>
+      <c r="E6" s="45">
+        <v>14</v>
+      </c>
+      <c r="F6" s="48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="50" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -3047,13 +3640,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="142.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3066,13 +3662,247 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>17</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="16">
+        <v>1</v>
+      </c>
+      <c r="D2" s="16">
+        <v>5</v>
+      </c>
+      <c r="E2" s="16">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>21</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14">
+        <v>8</v>
+      </c>
+      <c r="D6" s="14">
+        <v>35</v>
+      </c>
+      <c r="E6" s="13">
+        <v>21</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="9" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>24</v>
+      </c>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14">
+        <v>5</v>
+      </c>
+      <c r="D14" s="14">
+        <v>30</v>
+      </c>
+      <c r="E14" s="13">
+        <v>24</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="9" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -3082,13 +3912,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
+      <selection activeCell="F5" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="149.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -3101,13 +3934,327 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>25</v>
+      </c>
+      <c r="E2" s="14">
+        <v>18</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>27</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
+        <v>5</v>
+      </c>
+      <c r="D5" s="14">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14">
+        <v>27</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
+        <v>25</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14">
+        <v>20</v>
+      </c>
+      <c r="E7" s="14">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="155.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>19</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14">
+        <v>19</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>14</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5">
+        <v>3</v>
+      </c>
+      <c r="D6" s="5">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5">
+        <v>14</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>26</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14">
+        <v>5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>15</v>
+      </c>
+      <c r="E8" s="14">
+        <v>26</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="10" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sprint 3 Pierre-Luc" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3088,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3914,8 +3913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Sprint 3 Pierre-Luc" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3088,7 +3087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -3642,7 +3641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="9" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="Sprint 3 Simon" sheetId="6" r:id="rId7"/>
     <sheet name="Sprint 3 Étienne" sheetId="7" r:id="rId8"/>
     <sheet name="Sprint 3 Pierre-Luc" sheetId="8" r:id="rId9"/>
+    <sheet name="Sprint 4 Simon" sheetId="10" r:id="rId10"/>
+    <sheet name="Sprint 4 Étienne" sheetId="11" r:id="rId11"/>
+    <sheet name="Sprint 4 Pierre-Luc" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="144">
   <si>
     <t>ID</t>
   </si>
@@ -2805,6 +2808,441 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="135.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>28</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14">
+        <v>3</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="14">
+        <v>28</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
+        <v>31</v>
+      </c>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14">
+        <v>20</v>
+      </c>
+      <c r="E6" s="14">
+        <v>31</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="150.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>29</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14">
+        <v>15</v>
+      </c>
+      <c r="E2" s="14">
+        <v>29</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
+        <v>32</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
+        <v>20</v>
+      </c>
+      <c r="E5" s="14">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A10:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="6" max="6" width="113" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>22</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14">
+        <v>8</v>
+      </c>
+      <c r="D11" s="14">
+        <v>35</v>
+      </c>
+      <c r="E11" s="13">
+        <v>22</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
+      <c r="B13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="59" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="59" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="59" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="59" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17"/>
+      <c r="B17" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>23</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14">
+        <v>5</v>
+      </c>
+      <c r="D18" s="14">
+        <v>30</v>
+      </c>
+      <c r="E18" s="13">
+        <v>23</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="59" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="59" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="59" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
@@ -3913,7 +4351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="9" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -328,9 +328,6 @@
     <t>En tant qu'utilisateur, je veux avoir access aux information de la base de donnée sur iOS, afin de pouvoir utiliser l'application sur iPhone</t>
   </si>
   <si>
-    <t>installer les dépendaces pour compatibilité firebase firestore sur iOS</t>
-  </si>
-  <si>
     <t>La communication entre l'application et la base de donnée doit être possible sur iOS</t>
   </si>
   <si>
@@ -352,9 +349,6 @@
     <t>En tant qu'utilisateur je souhaite avoir des notification lorsque je suis proche d'une sculpture sur iOS, afin de rendre mon expérience sur iOS la même que sur android</t>
   </si>
   <si>
-    <t>Rendre l'application et la feature de notification possible sur ios</t>
-  </si>
-  <si>
     <t>En tant que programmeur, je souhaite que mes données ne soit chargee qu'une seul fois afin de limiter le trafic internet et le nombre de lecture à la base de donnée</t>
   </si>
   <si>
@@ -467,6 +461,60 @@
   </si>
   <si>
     <t>Lorsque l'utilisateur appuie sur une sculpture, l'écran des détails s'ouvrent</t>
+  </si>
+  <si>
+    <t>On doit recevoir une notification lorsqu'on est dans un rayon de 25 m comme sur android</t>
+  </si>
+  <si>
+    <t>Les dépendaces pour compatibilité firebase firestore sur iOS doivent fonctionner</t>
+  </si>
+  <si>
+    <t>On doit pouvoir recevoir une notification même lorsque l'app est en background</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir ajouter des collaboratuers afin de mettre à jour la liste des collaborateurs</t>
+  </si>
+  <si>
+    <t>Dans l'app admin, un onglet Ajouter des collaborateurs sera présent</t>
+  </si>
+  <si>
+    <t>Champs: Nom et rôle</t>
+  </si>
+  <si>
+    <t>Cliquer sur enregistrer pour confirmer l'envoie du collaborateur</t>
+  </si>
+  <si>
+    <t>Cliquer sur annuler pour interrompre l'ajout du collaborateur</t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir modifier un collaborateur afin de corriger des erreures commisent lors de la création</t>
+  </si>
+  <si>
+    <t>Avoir une liste des collaborateurs déjà dans la base de donnée</t>
+  </si>
+  <si>
+    <t>Pouvoir cliquer sur un collaborateur pour pouvoir le modifier</t>
+  </si>
+  <si>
+    <t>Avoir les champs disponible dans l'objets (nom, rôle)</t>
+  </si>
+  <si>
+    <t>Il devra avoir un icon dans le detail des sculpture pour ouvrir l'application en question</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je souhaite avoir un icone pour l'application afin de pouvoir la distinguer des autres applications sur iOS</t>
+  </si>
+  <si>
+    <t>L'icone doit être le logo de Beauce Art</t>
+  </si>
+  <si>
+    <t>La notification doit avertir l'utilisateur que'il est proche d'une sculpture</t>
+  </si>
+  <si>
+    <t>Lorsque la notification est appuyée, l'application doit s'ouvrir si elle est fermé</t>
+  </si>
+  <si>
+    <t>Lorsque la notification est appuyée, on doit faire un zoom sur la position de l'utilisateur si il est toujours dans un rayon de 25m d'une sculpture</t>
   </si>
 </sst>
 </file>
@@ -558,7 +606,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -625,30 +673,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -657,7 +681,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
@@ -680,8 +704,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1007,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1641,146 +1663,146 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="22">
+      <c r="A47" s="20">
         <v>11</v>
       </c>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23">
-        <v>5</v>
-      </c>
-      <c r="D47" s="23">
+      <c r="B47" s="21"/>
+      <c r="C47" s="21">
+        <v>5</v>
+      </c>
+      <c r="D47" s="21">
         <v>40</v>
       </c>
-      <c r="E47" s="23">
+      <c r="E47" s="21">
         <v>11</v>
       </c>
-      <c r="F47" s="24" t="s">
+      <c r="F47" s="22" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C48" s="27"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="27"/>
-      <c r="F48" s="28" t="s">
+      <c r="A48" s="23"/>
+      <c r="B48" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="28" t="s">
+      <c r="A49" s="23"/>
+      <c r="B49" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="25"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="26" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="28" t="s">
+      <c r="A50" s="23"/>
+      <c r="B50" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="26" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22">
+      <c r="A51" s="20">
         <v>12</v>
       </c>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23">
-        <v>5</v>
-      </c>
-      <c r="D51" s="23">
+      <c r="B51" s="21"/>
+      <c r="C51" s="21">
+        <v>5</v>
+      </c>
+      <c r="D51" s="21">
         <v>35</v>
       </c>
-      <c r="E51" s="23">
+      <c r="E51" s="21">
         <v>12</v>
       </c>
-      <c r="F51" s="24" t="s">
+      <c r="F51" s="22" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28" t="s">
+      <c r="A52" s="23"/>
+      <c r="B52" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
-      <c r="B53" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="27"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28" t="s">
+      <c r="A53" s="23"/>
+      <c r="B53" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="26" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28" t="s">
+      <c r="A54" s="23"/>
+      <c r="B54" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="26" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="26" t="s">
+      <c r="A55" s="23"/>
+      <c r="B55" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="C55" s="27"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28" t="s">
+      <c r="C55" s="25"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="26" t="s">
+      <c r="A56" s="23"/>
+      <c r="B56" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28" t="s">
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="26" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
-      <c r="B57" s="26" t="s">
+      <c r="A57" s="23"/>
+      <c r="B57" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28" t="s">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="26" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2027,7 +2049,7 @@
         <v>19</v>
       </c>
       <c r="F74" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2039,7 +2061,7 @@
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2051,7 +2073,7 @@
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
       <c r="F76" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2063,7 +2085,7 @@
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
       <c r="F77" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2081,7 +2103,7 @@
         <v>20</v>
       </c>
       <c r="F78" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2093,7 +2115,7 @@
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
       <c r="F79" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2105,7 +2127,7 @@
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,8 +2144,8 @@
       <c r="E81" s="13">
         <v>21</v>
       </c>
-      <c r="F81" s="29" t="s">
-        <v>115</v>
+      <c r="F81" s="27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2135,7 +2157,7 @@
       <c r="D82" s="18"/>
       <c r="E82" s="17"/>
       <c r="F82" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2147,7 +2169,7 @@
       <c r="D83" s="18"/>
       <c r="E83" s="17"/>
       <c r="F83" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2159,7 +2181,7 @@
       <c r="D84" s="18"/>
       <c r="E84" s="17"/>
       <c r="F84" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2171,7 +2193,7 @@
       <c r="D85" s="18"/>
       <c r="E85" s="17"/>
       <c r="F85" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2183,7 +2205,7 @@
       <c r="D86" s="18"/>
       <c r="E86" s="17"/>
       <c r="F86" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,19 +2217,19 @@
       <c r="D87" s="18"/>
       <c r="E87" s="17"/>
       <c r="F87" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
       <c r="B88" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C88" s="18"/>
       <c r="D88" s="18"/>
       <c r="E88" s="17"/>
       <c r="F88" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2219,13 +2241,13 @@
         <v>8</v>
       </c>
       <c r="D89" s="14">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E89" s="13">
         <v>22</v>
       </c>
-      <c r="F89" s="29" t="s">
-        <v>122</v>
+      <c r="F89" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,8 +2258,8 @@
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="17"/>
-      <c r="F90" s="9" t="s">
-        <v>123</v>
+      <c r="F90" s="57" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,8 +2270,8 @@
       <c r="C91" s="18"/>
       <c r="D91" s="18"/>
       <c r="E91" s="17"/>
-      <c r="F91" s="9" t="s">
-        <v>124</v>
+      <c r="F91" s="57" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
@@ -2260,8 +2282,8 @@
       <c r="C92" s="18"/>
       <c r="D92" s="18"/>
       <c r="E92" s="17"/>
-      <c r="F92" s="9" t="s">
-        <v>125</v>
+      <c r="F92" s="57" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,8 +2294,8 @@
       <c r="C93" s="18"/>
       <c r="D93" s="18"/>
       <c r="E93" s="17"/>
-      <c r="F93" s="9" t="s">
-        <v>126</v>
+      <c r="F93" s="57" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,8 +2306,8 @@
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
       <c r="E94" s="17"/>
-      <c r="F94" s="9" t="s">
-        <v>127</v>
+      <c r="F94" s="57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,8 +2318,8 @@
       <c r="C95" s="18"/>
       <c r="D95" s="18"/>
       <c r="E95" s="17"/>
-      <c r="F95" s="9" t="s">
-        <v>128</v>
+      <c r="F95" s="57" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -2309,13 +2331,13 @@
         <v>5</v>
       </c>
       <c r="D96" s="14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E96" s="13">
         <v>23</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -2326,8 +2348,8 @@
       <c r="C97" s="18"/>
       <c r="D97" s="18"/>
       <c r="E97" s="17"/>
-      <c r="F97" s="9" t="s">
-        <v>130</v>
+      <c r="F97" s="57" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -2338,8 +2360,8 @@
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
       <c r="E98" s="17"/>
-      <c r="F98" s="9" t="s">
-        <v>131</v>
+      <c r="F98" s="57" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -2350,8 +2372,8 @@
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="17"/>
-      <c r="F99" s="9" t="s">
-        <v>132</v>
+      <c r="F99" s="57" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -2368,8 +2390,8 @@
       <c r="E100" s="13">
         <v>24</v>
       </c>
-      <c r="F100" s="29" t="s">
-        <v>133</v>
+      <c r="F100" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -2381,7 +2403,7 @@
       <c r="D101" s="18"/>
       <c r="E101" s="17"/>
       <c r="F101" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -2393,7 +2415,7 @@
       <c r="D102" s="18"/>
       <c r="E102" s="17"/>
       <c r="F102" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,7 +2427,7 @@
       <c r="D103" s="18"/>
       <c r="E103" s="17"/>
       <c r="F103" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -2417,7 +2439,7 @@
       <c r="D104" s="18"/>
       <c r="E104" s="17"/>
       <c r="F104" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -2429,7 +2451,7 @@
       <c r="D105" s="18"/>
       <c r="E105" s="17"/>
       <c r="F105" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -2537,7 +2559,7 @@
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="10" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2567,7 +2589,7 @@
         <v>27</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -2643,7 +2665,7 @@
       <c r="B121" s="14"/>
       <c r="C121" s="14"/>
       <c r="D121" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E121" s="14">
         <v>29</v>
@@ -2660,8 +2682,8 @@
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
-      <c r="F122" s="10" t="s">
-        <v>97</v>
+      <c r="F122" s="58" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2672,8 +2694,8 @@
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
-      <c r="F123" s="10" t="s">
-        <v>98</v>
+      <c r="F123" s="58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -2691,7 +2713,7 @@
         <v>30</v>
       </c>
       <c r="F124" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -2703,7 +2725,7 @@
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
       <c r="F125" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -2719,7 +2741,7 @@
         <v>31</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2731,7 +2753,7 @@
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
       <c r="F127" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,7 +2777,7 @@
       <c r="D129" s="18"/>
       <c r="E129" s="18"/>
       <c r="F129" s="10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -2767,42 +2789,303 @@
         <v>8</v>
       </c>
       <c r="D130" s="14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E130" s="14">
         <v>32</v>
       </c>
       <c r="F130" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="20"/>
-      <c r="B131" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C131" s="21"/>
-      <c r="D131" s="21"/>
-      <c r="E131" s="21"/>
-      <c r="F131" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="11"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="11">
-        <f>SUM(C2:C131)</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="17"/>
+      <c r="B131" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C131" s="18"/>
+      <c r="D131" s="18"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="17"/>
+      <c r="B132" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="17"/>
+      <c r="B133" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133" s="18"/>
+      <c r="D133" s="18"/>
+      <c r="E133" s="18"/>
+      <c r="F133" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="17"/>
+      <c r="B134" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" s="18"/>
+      <c r="D134" s="18"/>
+      <c r="E134" s="18"/>
+      <c r="F134" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+      <c r="B135" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="18"/>
+      <c r="D135" s="18"/>
+      <c r="E135" s="18"/>
+      <c r="F135" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="13">
+        <v>33</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14">
+        <v>8</v>
+      </c>
+      <c r="D136" s="14">
+        <v>20</v>
+      </c>
+      <c r="E136" s="13">
+        <v>33</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="17"/>
+      <c r="B137" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C137" s="18"/>
+      <c r="D137" s="18"/>
+      <c r="E137" s="17"/>
+      <c r="F137" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="17"/>
+      <c r="B138" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="17"/>
+      <c r="B139" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139" s="18"/>
+      <c r="D139" s="18"/>
+      <c r="E139" s="17"/>
+      <c r="F139" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="17"/>
+      <c r="B140" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" s="18"/>
+      <c r="D140" s="18"/>
+      <c r="E140" s="17"/>
+      <c r="F140" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="17"/>
+      <c r="B141" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="17"/>
+      <c r="F141" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D132" s="11">
-        <f>SUM(D2:D131)</f>
-        <v>905</v>
-      </c>
-      <c r="E132" s="11"/>
-      <c r="F132" s="11"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="13">
+        <v>34</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14">
+        <v>5</v>
+      </c>
+      <c r="D142" s="14">
+        <v>25</v>
+      </c>
+      <c r="E142" s="13">
+        <v>34</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="17"/>
+      <c r="B143" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C143" s="18"/>
+      <c r="D143" s="18"/>
+      <c r="E143" s="17"/>
+      <c r="F143" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="17"/>
+      <c r="B144" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="17"/>
+      <c r="B145" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145" s="18"/>
+      <c r="D145" s="18"/>
+      <c r="E145" s="17"/>
+      <c r="F145" s="57" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="16">
+        <v>35</v>
+      </c>
+      <c r="B146" s="12"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16">
+        <v>5</v>
+      </c>
+      <c r="E146" s="16">
+        <v>35</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="54"/>
+      <c r="B147" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="54"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="54"/>
+      <c r="B148" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="54"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="54"/>
+      <c r="B149" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149" s="54"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="16">
+        <v>36</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16">
+        <v>5</v>
+      </c>
+      <c r="E150" s="16">
+        <v>36</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="54"/>
+      <c r="B151" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C151" s="54"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11">
+        <f>SUM(C2:C129)</f>
+        <v>141</v>
+      </c>
+      <c r="D155" s="11">
+        <f>SUM(D2:D129)</f>
+        <v>870</v>
+      </c>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2810,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2822,22 +3105,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2867,7 +3150,7 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="58" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2879,7 +3162,7 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="58" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2891,7 +3174,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="58" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2908,7 +3191,7 @@
         <v>31</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -2919,8 +3202,8 @@
       <c r="C7" s="18"/>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
-      <c r="F7" s="60" t="s">
-        <v>102</v>
+      <c r="F7" s="58" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -2931,7 +3214,7 @@
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
-      <c r="F8" s="60" t="s">
+      <c r="F8" s="58" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2943,8 +3226,88 @@
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
-      <c r="F9" s="60" t="s">
-        <v>103</v>
+      <c r="F9" s="58" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>35</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16">
+        <v>5</v>
+      </c>
+      <c r="E10" s="16">
+        <v>35</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="54"/>
+      <c r="B11" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="54"/>
+      <c r="B12" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="58" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="54"/>
+      <c r="B13" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>36</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16">
+        <v>5</v>
+      </c>
+      <c r="E14" s="16">
+        <v>36</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="54"/>
+      <c r="B15" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="58" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2954,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,22 +3329,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2992,7 +3355,7 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E2" s="14">
         <v>29</v>
@@ -3009,8 +3372,8 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
-      <c r="F3" s="60" t="s">
-        <v>97</v>
+      <c r="F3" s="58" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3021,8 +3384,8 @@
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
-      <c r="F4" s="60" t="s">
-        <v>98</v>
+      <c r="F4" s="58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,28 +3397,75 @@
         <v>8</v>
       </c>
       <c r="D5" s="14">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E5" s="14">
         <v>32</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="58" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="58" t="s">
+        <v>159</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3063,10 +3473,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:F21"/>
+  <dimension ref="A10:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:F21"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3075,22 +3485,22 @@
   </cols>
   <sheetData>
     <row r="10" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="53" t="s">
+      <c r="C10" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="53" t="s">
+      <c r="D10" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="52" t="s">
+      <c r="E10" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="49" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3103,13 +3513,13 @@
         <v>8</v>
       </c>
       <c r="D11" s="14">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E11" s="13">
         <v>22</v>
       </c>
-      <c r="F11" s="29" t="s">
-        <v>122</v>
+      <c r="F11" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -3120,8 +3530,8 @@
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
-      <c r="F12" s="59" t="s">
-        <v>123</v>
+      <c r="F12" s="57" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -3132,8 +3542,8 @@
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
-      <c r="F13" s="59" t="s">
-        <v>124</v>
+      <c r="F13" s="57" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -3144,8 +3554,8 @@
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="17"/>
-      <c r="F14" s="59" t="s">
-        <v>125</v>
+      <c r="F14" s="57" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3156,8 +3566,8 @@
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
-      <c r="F15" s="59" t="s">
-        <v>126</v>
+      <c r="F15" s="57" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3168,8 +3578,8 @@
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="17"/>
-      <c r="F16" s="59" t="s">
-        <v>127</v>
+      <c r="F16" s="57" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3180,8 +3590,8 @@
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
-      <c r="F17" s="59" t="s">
-        <v>128</v>
+      <c r="F17" s="57" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3193,13 +3603,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="14">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E18" s="13">
         <v>23</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3210,8 +3620,8 @@
       <c r="C19" s="18"/>
       <c r="D19" s="18"/>
       <c r="E19" s="17"/>
-      <c r="F19" s="59" t="s">
-        <v>130</v>
+      <c r="F19" s="57" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3222,8 +3632,8 @@
       <c r="C20" s="18"/>
       <c r="D20" s="18"/>
       <c r="E20" s="17"/>
-      <c r="F20" s="59" t="s">
-        <v>131</v>
+      <c r="F20" s="57" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3234,8 +3644,140 @@
       <c r="C21" s="18"/>
       <c r="D21" s="18"/>
       <c r="E21" s="17"/>
-      <c r="F21" s="59" t="s">
-        <v>132</v>
+      <c r="F21" s="57" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>33</v>
+      </c>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14">
+        <v>8</v>
+      </c>
+      <c r="D22" s="14">
+        <v>20</v>
+      </c>
+      <c r="E22" s="13">
+        <v>33</v>
+      </c>
+      <c r="F22" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17"/>
+      <c r="B23" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="57" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>34</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14">
+        <v>5</v>
+      </c>
+      <c r="D28" s="14">
+        <v>25</v>
+      </c>
+      <c r="E28" s="13">
+        <v>34</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="57" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3621,57 +4163,57 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="30">
-        <v>8</v>
-      </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="31">
+      <c r="A7" s="28">
+        <v>8</v>
+      </c>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29">
         <v>3</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="29">
         <v>45</v>
       </c>
-      <c r="E7" s="31">
-        <v>8</v>
-      </c>
-      <c r="F7" s="34" t="s">
+      <c r="E7" s="29">
+        <v>8</v>
+      </c>
+      <c r="F7" s="32" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="36" t="s">
-        <v>140</v>
+      <c r="A8" s="30"/>
+      <c r="B8" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="34" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="36" t="s">
+      <c r="A9" s="30"/>
+      <c r="B9" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="34" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="36" t="s">
-        <v>141</v>
+      <c r="A10" s="30"/>
+      <c r="B10" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="34" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -3693,76 +4235,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="51" t="s">
+      <c r="F1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="54">
+      <c r="A2" s="52">
         <v>10</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55">
+      <c r="B2" s="53"/>
+      <c r="C2" s="53">
         <v>3</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="53">
         <v>25</v>
       </c>
-      <c r="E2" s="55">
+      <c r="E2" s="53">
         <v>10</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="56" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="56"/>
-      <c r="B3" s="59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="60" t="s">
+      <c r="A3" s="54"/>
+      <c r="B3" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="58" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="60" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="58" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="56"/>
-      <c r="B5" s="59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="60" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="58" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3883,69 +4425,69 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
+      <c r="A8" s="35">
         <v>9</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38">
+      <c r="B8" s="36"/>
+      <c r="C8" s="36">
         <v>3</v>
       </c>
-      <c r="D8" s="38">
+      <c r="D8" s="36">
         <v>25</v>
       </c>
-      <c r="E8" s="38">
+      <c r="E8" s="36">
         <v>9</v>
       </c>
-      <c r="F8" s="41" t="s">
+      <c r="F8" s="39" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="43" t="s">
-        <v>142</v>
+      <c r="A9" s="37"/>
+      <c r="B9" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="41" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="39"/>
-      <c r="B10" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="43" t="s">
+      <c r="A10" s="37"/>
+      <c r="B10" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="41" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="39"/>
-      <c r="B11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="40"/>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="43" t="s">
+      <c r="A11" s="37"/>
+      <c r="B11" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="41" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="39"/>
-      <c r="B12" s="42" t="s">
+      <c r="A12" s="37"/>
+      <c r="B12" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="43" t="s">
-        <v>143</v>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="41" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4041,32 +4583,32 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44">
+      <c r="A6" s="42">
         <v>14</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45">
+      <c r="B6" s="43"/>
+      <c r="C6" s="43">
         <v>3</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="43">
         <v>25</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="43">
         <v>14</v>
       </c>
-      <c r="F6" s="48" t="s">
+      <c r="F6" s="46" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="49" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="50" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="48" t="s">
         <v>37</v>
       </c>
     </row>
@@ -4080,7 +4622,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4176,8 +4718,8 @@
       <c r="E6" s="13">
         <v>21</v>
       </c>
-      <c r="F6" s="29" t="s">
-        <v>115</v>
+      <c r="F6" s="27" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4189,7 +4731,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="17"/>
       <c r="F7" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4201,7 +4743,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="17"/>
       <c r="F8" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4213,7 +4755,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="17"/>
       <c r="F9" s="9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4225,7 +4767,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="17"/>
       <c r="F10" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4237,7 +4779,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="17"/>
       <c r="F11" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4249,19 +4791,19 @@
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
       <c r="F12" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
       <c r="F13" s="9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4278,8 +4820,8 @@
       <c r="E14" s="13">
         <v>24</v>
       </c>
-      <c r="F14" s="29" t="s">
-        <v>133</v>
+      <c r="F14" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4291,7 +4833,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
       <c r="F15" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4303,7 +4845,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="17"/>
       <c r="F16" s="9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4315,7 +4857,7 @@
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4327,7 +4869,7 @@
       <c r="D18" s="18"/>
       <c r="E18" s="17"/>
       <c r="F18" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4339,7 +4881,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="17"/>
       <c r="F19" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4437,7 +4979,7 @@
         <v>27</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4583,7 +5125,7 @@
         <v>19</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4595,7 +5137,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4607,7 +5149,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4619,7 +5161,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
       <c r="F5" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="162">
   <si>
     <t>ID</t>
   </si>
@@ -466,9 +466,6 @@
     <t>On doit recevoir une notification lorsqu'on est dans un rayon de 25 m comme sur android</t>
   </si>
   <si>
-    <t>Les dépendaces pour compatibilité firebase firestore sur iOS doivent fonctionner</t>
-  </si>
-  <si>
     <t>On doit pouvoir recevoir une notification même lorsque l'app est en background</t>
   </si>
   <si>
@@ -515,6 +512,15 @@
   </si>
   <si>
     <t>Lorsque la notification est appuyée, on doit faire un zoom sur la position de l'utilisateur si il est toujours dans un rayon de 25m d'une sculpture</t>
+  </si>
+  <si>
+    <t>On doit avoir accès aux informations sur les sculptures</t>
+  </si>
+  <si>
+    <t>On doit avoir accès aux informations sur les collaborateurs</t>
+  </si>
+  <si>
+    <t>On doit avoir accès aux informations sur les nouvelles</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F156"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F136" sqref="F136"/>
+    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2559,7 +2565,7 @@
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2683,7 +2689,7 @@
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
       <c r="F122" s="58" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2695,53 +2701,49 @@
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
       <c r="F123" s="58" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="13">
-        <v>30</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="14">
-        <v>1</v>
-      </c>
-      <c r="D124" s="14">
-        <v>10</v>
-      </c>
-      <c r="E124" s="14">
-        <v>30</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>98</v>
+      <c r="A124" s="17"/>
+      <c r="B124" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124" s="18"/>
+      <c r="D124" s="18"/>
+      <c r="E124" s="18"/>
+      <c r="F124" s="58" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
-      <c r="F125" s="10" t="s">
-        <v>99</v>
+      <c r="F125" s="58" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B126" s="14"/>
-      <c r="C126" s="14"/>
+      <c r="C126" s="14">
+        <v>1</v>
+      </c>
       <c r="D126" s="14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E126" s="14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2753,339 +2755,366 @@
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
       <c r="F127" s="10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="17"/>
-      <c r="B128" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="18"/>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="10" t="s">
-        <v>94</v>
+      <c r="A128" s="13">
+        <v>31</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14">
+        <v>20</v>
+      </c>
+      <c r="E128" s="14">
+        <v>31</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18"/>
       <c r="F129" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="13">
-        <v>32</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="14">
-        <v>8</v>
-      </c>
-      <c r="D130" s="14">
-        <v>35</v>
-      </c>
-      <c r="E130" s="14">
-        <v>32</v>
-      </c>
-      <c r="F130" s="12" t="s">
-        <v>103</v>
+      <c r="A130" s="17"/>
+      <c r="B130" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="18"/>
+      <c r="D130" s="18"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="58" t="s">
-        <v>142</v>
+      <c r="E131" s="18"/>
+      <c r="F131" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="17"/>
-      <c r="B132" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="18"/>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="58" t="s">
-        <v>144</v>
+      <c r="A132" s="13">
+        <v>32</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14">
+        <v>8</v>
+      </c>
+      <c r="D132" s="14">
+        <v>35</v>
+      </c>
+      <c r="E132" s="14">
+        <v>32</v>
+      </c>
+      <c r="F132" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
+      <c r="E133" s="17"/>
       <c r="F133" s="58" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
       <c r="E134" s="18"/>
       <c r="F134" s="58" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
       <c r="F135" s="58" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="13">
-        <v>33</v>
-      </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="14">
-        <v>8</v>
-      </c>
-      <c r="D136" s="14">
-        <v>20</v>
-      </c>
-      <c r="E136" s="13">
-        <v>33</v>
-      </c>
-      <c r="F136" s="27" t="s">
-        <v>145</v>
+      <c r="A136" s="17"/>
+      <c r="B136" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" s="18"/>
+      <c r="D136" s="18"/>
+      <c r="E136" s="18"/>
+      <c r="F136" s="58" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="57" t="s">
-        <v>146</v>
+      <c r="E137" s="18"/>
+      <c r="F137" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="17"/>
-      <c r="B138" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="18"/>
-      <c r="D138" s="18"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="57" t="s">
-        <v>122</v>
+      <c r="A138" s="13">
+        <v>33</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14">
+        <v>8</v>
+      </c>
+      <c r="D138" s="14">
+        <v>20</v>
+      </c>
+      <c r="E138" s="13">
+        <v>33</v>
+      </c>
+      <c r="F138" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
       <c r="E139" s="17"/>
       <c r="F139" s="57" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
       <c r="E140" s="17"/>
       <c r="F140" s="57" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="17"/>
       <c r="F141" s="57" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="13">
-        <v>34</v>
-      </c>
-      <c r="B142" s="14"/>
-      <c r="C142" s="14">
-        <v>5</v>
-      </c>
-      <c r="D142" s="14">
-        <v>25</v>
-      </c>
-      <c r="E142" s="13">
-        <v>34</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>150</v>
+      <c r="A142" s="17"/>
+      <c r="B142" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" s="18"/>
+      <c r="D142" s="18"/>
+      <c r="E142" s="17"/>
+      <c r="F142" s="57" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="17"/>
       <c r="F143" s="57" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="17"/>
-      <c r="B144" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="18"/>
-      <c r="D144" s="18"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="57" t="s">
-        <v>152</v>
+      <c r="A144" s="13">
+        <v>34</v>
+      </c>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14">
+        <v>5</v>
+      </c>
+      <c r="D144" s="14">
+        <v>25</v>
+      </c>
+      <c r="E144" s="13">
+        <v>34</v>
+      </c>
+      <c r="F144" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="17"/>
       <c r="F145" s="57" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="16">
+      <c r="A146" s="17"/>
+      <c r="B146" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="18"/>
+      <c r="D146" s="18"/>
+      <c r="E146" s="17"/>
+      <c r="F146" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="17"/>
+      <c r="B147" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147" s="18"/>
+      <c r="D147" s="18"/>
+      <c r="E147" s="17"/>
+      <c r="F147" s="57" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="16">
         <v>35</v>
       </c>
-      <c r="B146" s="12"/>
-      <c r="C146" s="16"/>
-      <c r="D146" s="16">
-        <v>5</v>
-      </c>
-      <c r="E146" s="16">
+      <c r="B148" s="12"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16">
+        <v>5</v>
+      </c>
+      <c r="E148" s="16">
         <v>35</v>
       </c>
-      <c r="F146" s="12" t="s">
+      <c r="F148" s="12" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="54"/>
-      <c r="B147" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C147" s="54"/>
-      <c r="D147" s="54"/>
-      <c r="E147" s="54"/>
-      <c r="F147" s="58" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="54"/>
-      <c r="B148" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="54"/>
-      <c r="D148" s="54"/>
-      <c r="E148" s="54"/>
-      <c r="F148" s="58" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="54"/>
       <c r="B149" s="58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C149" s="54"/>
       <c r="D149" s="54"/>
       <c r="E149" s="54"/>
       <c r="F149" s="58" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="16">
-        <v>36</v>
-      </c>
-      <c r="B150" s="12"/>
-      <c r="C150" s="16"/>
-      <c r="D150" s="16">
-        <v>5</v>
-      </c>
-      <c r="E150" s="16">
-        <v>36</v>
-      </c>
-      <c r="F150" s="12" t="s">
-        <v>155</v>
+      <c r="A150" s="54"/>
+      <c r="B150" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="54"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="54"/>
       <c r="B151" s="58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" s="54"/>
       <c r="D151" s="54"/>
       <c r="E151" s="54"/>
       <c r="F151" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="11"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="11">
-        <f>SUM(C2:C129)</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="16">
+        <v>36</v>
+      </c>
+      <c r="B152" s="12"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16">
+        <v>5</v>
+      </c>
+      <c r="E152" s="16">
+        <v>36</v>
+      </c>
+      <c r="F152" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="54"/>
+      <c r="B153" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C153" s="54"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="58" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11">
+        <f>SUM(C2:C131)</f>
         <v>141</v>
       </c>
-      <c r="D155" s="11">
-        <f>SUM(D2:D129)</f>
+      <c r="D154" s="11">
+        <f>SUM(D2:D131)</f>
         <v>870</v>
       </c>
-      <c r="E155" s="11"/>
-      <c r="F155" s="11"/>
-    </row>
-    <row r="156" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E154" s="11"/>
+      <c r="F154" s="11"/>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3295,7 +3324,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3307,7 +3336,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3317,10 +3346,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3373,7 +3402,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="58" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3385,85 +3414,109 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="58" t="s">
-        <v>97</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
-        <v>32</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14">
-        <v>8</v>
-      </c>
-      <c r="D5" s="14">
-        <v>35</v>
-      </c>
-      <c r="E5" s="14">
-        <v>32</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>103</v>
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="58" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="17"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="58" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="58" t="s">
-        <v>144</v>
+      <c r="A7" s="13">
+        <v>32</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14">
+        <v>8</v>
+      </c>
+      <c r="D7" s="14">
+        <v>35</v>
+      </c>
+      <c r="E7" s="14">
+        <v>32</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="58" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="58" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="58" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="58" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -3476,7 +3529,7 @@
   <dimension ref="A10:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F31"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3663,7 +3716,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3675,7 +3728,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="17"/>
       <c r="F23" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3699,7 +3752,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="17"/>
       <c r="F25" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3711,7 +3764,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="17"/>
       <c r="F26" s="57" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3723,7 +3776,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="17"/>
       <c r="F27" s="57" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3741,7 +3794,7 @@
         <v>34</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3753,7 +3806,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="17"/>
       <c r="F29" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3765,7 +3818,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3777,7 +3830,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="17"/>
       <c r="F31" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="168">
   <si>
     <t>ID</t>
   </si>
@@ -521,6 +521,24 @@
   </si>
   <si>
     <t>On doit avoir accès aux informations sur les nouvelles</t>
+  </si>
+  <si>
+    <t>Avoir un bouton pour supprimer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoir un bouton pour supprimer </t>
+  </si>
+  <si>
+    <t>En tant qu'administrateur, je veux pouvoir supprimer des sculptures à partir de l'écran de modification des sculptures afin de corriger des erreures</t>
+  </si>
+  <si>
+    <t>Bouton pour activer ou désactiver la nouvelle</t>
+  </si>
+  <si>
+    <t>Demande confirmation de suppression</t>
+  </si>
+  <si>
+    <t>Si confirmé, supprimer les informations de la base de données</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F167"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A146" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A166" sqref="A166:F166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,421 +2347,415 @@
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="13">
+      <c r="A96" s="17"/>
+      <c r="B96" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="13">
         <v>23</v>
       </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14">
-        <v>5</v>
-      </c>
-      <c r="D96" s="14">
+      <c r="B97" s="14"/>
+      <c r="C97" s="14">
+        <v>5</v>
+      </c>
+      <c r="D97" s="14">
         <v>25</v>
       </c>
-      <c r="E96" s="13">
+      <c r="E97" s="13">
         <v>23</v>
       </c>
-      <c r="F96" s="14" t="s">
+      <c r="F97" s="14" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="17"/>
-      <c r="B97" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C97" s="18"/>
-      <c r="D97" s="18"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="57" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="17"/>
       <c r="B98" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C98" s="18"/>
       <c r="D98" s="18"/>
       <c r="E98" s="17"/>
       <c r="F98" s="57" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="17"/>
       <c r="B99" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" s="18"/>
       <c r="D99" s="18"/>
       <c r="E99" s="17"/>
       <c r="F99" s="57" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="17"/>
+      <c r="B100" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="57" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="13">
-        <v>24</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="14">
-        <v>5</v>
-      </c>
-      <c r="D100" s="14">
-        <v>30</v>
-      </c>
-      <c r="E100" s="13">
-        <v>24</v>
-      </c>
-      <c r="F100" s="27" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="17"/>
       <c r="B101" s="18" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="17"/>
-      <c r="F101" s="9" t="s">
-        <v>132</v>
+      <c r="F101" s="57" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="17"/>
       <c r="B102" s="18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C102" s="18"/>
       <c r="D102" s="18"/>
       <c r="E102" s="17"/>
-      <c r="F102" s="9" t="s">
-        <v>133</v>
+      <c r="F102" s="57" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="17"/>
       <c r="B103" s="18" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C103" s="18"/>
       <c r="D103" s="18"/>
       <c r="E103" s="17"/>
-      <c r="F103" s="9" t="s">
-        <v>134</v>
+      <c r="F103" s="57" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="17"/>
       <c r="B104" s="18" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="C104" s="18"/>
       <c r="D104" s="18"/>
       <c r="E104" s="17"/>
-      <c r="F104" s="9" t="s">
-        <v>135</v>
+      <c r="F104" s="57" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A105" s="17"/>
-      <c r="B105" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C105" s="18"/>
-      <c r="D105" s="18"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="9" t="s">
-        <v>136</v>
+      <c r="A105" s="13">
+        <v>24</v>
+      </c>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14">
+        <v>5</v>
+      </c>
+      <c r="D105" s="14">
+        <v>30</v>
+      </c>
+      <c r="E105" s="13">
+        <v>24</v>
+      </c>
+      <c r="F105" s="27" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A106" s="13">
-        <v>25</v>
-      </c>
-      <c r="B106" s="14"/>
-      <c r="C106" s="14">
-        <v>8</v>
-      </c>
-      <c r="D106" s="14">
-        <v>20</v>
-      </c>
-      <c r="E106" s="14">
-        <v>25</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>82</v>
+      <c r="A106" s="17"/>
+      <c r="B106" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="9" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="17"/>
-      <c r="B107" s="9" t="s">
-        <v>5</v>
+      <c r="B107" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="C107" s="18"/>
       <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="10" t="s">
-        <v>83</v>
+      <c r="E107" s="17"/>
+      <c r="F107" s="9" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="17"/>
-      <c r="B108" s="9" t="s">
-        <v>7</v>
+      <c r="B108" s="18" t="s">
+        <v>8</v>
       </c>
       <c r="C108" s="18"/>
       <c r="D108" s="18"/>
-      <c r="E108" s="18"/>
-      <c r="F108" s="10" t="s">
-        <v>84</v>
+      <c r="E108" s="17"/>
+      <c r="F108" s="9" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="17"/>
-      <c r="B109" s="9" t="s">
-        <v>8</v>
+      <c r="B109" s="18" t="s">
+        <v>9</v>
       </c>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="10" t="s">
-        <v>85</v>
+      <c r="E109" s="17"/>
+      <c r="F109" s="9" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="17"/>
-      <c r="B110" s="9" t="s">
-        <v>9</v>
+      <c r="B110" s="18" t="s">
+        <v>10</v>
       </c>
       <c r="C110" s="18"/>
       <c r="D110" s="18"/>
-      <c r="E110" s="18"/>
-      <c r="F110" s="10" t="s">
-        <v>86</v>
+      <c r="E110" s="17"/>
+      <c r="F110" s="9" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="17"/>
-      <c r="B111" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C111" s="18"/>
-      <c r="D111" s="18"/>
-      <c r="E111" s="18"/>
-      <c r="F111" s="10" t="s">
-        <v>87</v>
+      <c r="A111" s="13">
+        <v>25</v>
+      </c>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14">
+        <v>8</v>
+      </c>
+      <c r="D111" s="14">
+        <v>20</v>
+      </c>
+      <c r="E111" s="14">
+        <v>25</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="13">
-        <v>26</v>
-      </c>
-      <c r="B112" s="14"/>
-      <c r="C112" s="14">
-        <v>5</v>
-      </c>
-      <c r="D112" s="14">
-        <v>15</v>
-      </c>
-      <c r="E112" s="14">
-        <v>26</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>88</v>
+      <c r="A112" s="17"/>
+      <c r="B112" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="17"/>
       <c r="B113" s="9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="10" t="s">
-        <v>153</v>
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="17"/>
       <c r="B114" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
       <c r="F114" s="10" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="13">
-        <v>27</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="14">
-        <v>5</v>
-      </c>
-      <c r="D115" s="14">
-        <v>25</v>
-      </c>
-      <c r="E115" s="14">
-        <v>27</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>104</v>
+      <c r="A115" s="17"/>
+      <c r="B115" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="18"/>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="10" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="17"/>
       <c r="B116" s="9" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
       <c r="F116" s="10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="13">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B117" s="14"/>
       <c r="C117" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D117" s="14">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E117" s="14">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="17"/>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
       <c r="F118" s="10" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="17"/>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
       <c r="F119" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="17"/>
-      <c r="B120" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="10" t="s">
-        <v>95</v>
+      <c r="A120" s="13">
+        <v>27</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14">
+        <v>5</v>
+      </c>
+      <c r="D120" s="14">
+        <v>25</v>
+      </c>
+      <c r="E120" s="14">
+        <v>27</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="13">
-        <v>29</v>
-      </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="14">
+      <c r="A121" s="17"/>
+      <c r="B121" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C121" s="18"/>
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="13">
+        <v>28</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14">
+        <v>3</v>
+      </c>
+      <c r="D122" s="14">
         <v>20</v>
       </c>
-      <c r="E121" s="14">
-        <v>29</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="17"/>
-      <c r="B122" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C122" s="18"/>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="58" t="s">
-        <v>97</v>
+      <c r="E122" s="14">
+        <v>28</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
-      <c r="B123" s="18" t="s">
-        <v>7</v>
+      <c r="B123" s="19" t="s">
+        <v>5</v>
       </c>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
-      <c r="F123" s="58" t="s">
-        <v>159</v>
+      <c r="F123" s="10" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
-      <c r="B124" s="18" t="s">
-        <v>8</v>
+      <c r="B124" s="19" t="s">
+        <v>7</v>
       </c>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
       <c r="E124" s="18"/>
-      <c r="F124" s="58" t="s">
-        <v>160</v>
+      <c r="F124" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
-      <c r="B125" s="18" t="s">
-        <v>9</v>
+      <c r="B125" s="19" t="s">
+        <v>8</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
-      <c r="F125" s="58" t="s">
-        <v>161</v>
+      <c r="F125" s="10" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" s="14"/>
-      <c r="C126" s="14">
-        <v>1</v>
-      </c>
+      <c r="C126" s="14"/>
       <c r="D126" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E126" s="14">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2754,367 +2766,523 @@
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
-      <c r="F127" s="10" t="s">
-        <v>99</v>
+      <c r="F127" s="58" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
-        <v>31</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14">
-        <v>20</v>
-      </c>
-      <c r="E128" s="14">
-        <v>31</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>100</v>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="58" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18"/>
-      <c r="F129" s="10" t="s">
-        <v>101</v>
+      <c r="F129" s="58" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
       <c r="B130" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
       <c r="E130" s="18"/>
-      <c r="F130" s="10" t="s">
-        <v>94</v>
+      <c r="F130" s="58" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="17"/>
-      <c r="B131" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C131" s="18"/>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="10" t="s">
-        <v>102</v>
+      <c r="A131" s="13">
+        <v>30</v>
+      </c>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14">
+        <v>1</v>
+      </c>
+      <c r="D131" s="14">
+        <v>10</v>
+      </c>
+      <c r="E131" s="14">
+        <v>30</v>
+      </c>
+      <c r="F131" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
-        <v>32</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14">
-        <v>8</v>
-      </c>
-      <c r="D132" s="14">
-        <v>35</v>
-      </c>
-      <c r="E132" s="14">
-        <v>32</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>103</v>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="17"/>
-      <c r="B133" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C133" s="18"/>
-      <c r="D133" s="18"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="58" t="s">
-        <v>142</v>
+      <c r="A133" s="13">
+        <v>31</v>
+      </c>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14">
+        <v>20</v>
+      </c>
+      <c r="E133" s="14">
+        <v>31</v>
+      </c>
+      <c r="F133" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
       <c r="E134" s="18"/>
-      <c r="F134" s="58" t="s">
-        <v>143</v>
+      <c r="F134" s="10" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
-      <c r="F135" s="58" t="s">
-        <v>156</v>
+      <c r="F135" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="17"/>
       <c r="B136" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
       <c r="E136" s="18"/>
-      <c r="F136" s="58" t="s">
-        <v>157</v>
+      <c r="F136" s="10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="17"/>
-      <c r="B137" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C137" s="18"/>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="58" t="s">
-        <v>158</v>
+      <c r="A137" s="13">
+        <v>32</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14">
+        <v>8</v>
+      </c>
+      <c r="D137" s="14">
+        <v>35</v>
+      </c>
+      <c r="E137" s="14">
+        <v>32</v>
+      </c>
+      <c r="F137" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="13">
-        <v>33</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14">
-        <v>8</v>
-      </c>
-      <c r="D138" s="14">
-        <v>20</v>
-      </c>
-      <c r="E138" s="13">
-        <v>33</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>144</v>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="58" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="57" t="s">
-        <v>145</v>
+      <c r="E139" s="18"/>
+      <c r="F139" s="58" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="57" t="s">
-        <v>122</v>
+      <c r="E140" s="18"/>
+      <c r="F140" s="58" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="57" t="s">
-        <v>146</v>
+      <c r="E141" s="18"/>
+      <c r="F141" s="58" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
       <c r="B142" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C142" s="18"/>
       <c r="D142" s="18"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="57" t="s">
-        <v>147</v>
+      <c r="E142" s="18"/>
+      <c r="F142" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="17"/>
-      <c r="B143" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C143" s="18"/>
-      <c r="D143" s="18"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="57" t="s">
-        <v>148</v>
+      <c r="A143" s="13">
+        <v>33</v>
+      </c>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14">
+        <v>8</v>
+      </c>
+      <c r="D143" s="14">
+        <v>20</v>
+      </c>
+      <c r="E143" s="13">
+        <v>33</v>
+      </c>
+      <c r="F143" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
-        <v>34</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14">
-        <v>5</v>
-      </c>
-      <c r="D144" s="14">
-        <v>25</v>
-      </c>
-      <c r="E144" s="13">
-        <v>34</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>149</v>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="57" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="17"/>
       <c r="F145" s="57" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="17"/>
       <c r="B146" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" s="18"/>
       <c r="D146" s="18"/>
       <c r="E146" s="17"/>
       <c r="F146" s="57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="17"/>
       <c r="B147" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" s="18"/>
       <c r="D147" s="18"/>
       <c r="E147" s="17"/>
       <c r="F147" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="17"/>
+      <c r="B148" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C148" s="18"/>
+      <c r="D148" s="18"/>
+      <c r="E148" s="17"/>
+      <c r="F148" s="57" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="13">
+        <v>34</v>
+      </c>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14">
+        <v>5</v>
+      </c>
+      <c r="D149" s="14">
+        <v>25</v>
+      </c>
+      <c r="E149" s="13">
+        <v>34</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="17"/>
+      <c r="B150" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C150" s="18"/>
+      <c r="D150" s="18"/>
+      <c r="E150" s="17"/>
+      <c r="F150" s="57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="17"/>
+      <c r="B151" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="18"/>
+      <c r="D151" s="18"/>
+      <c r="E151" s="17"/>
+      <c r="F151" s="57" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="17"/>
+      <c r="B152" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152" s="18"/>
+      <c r="D152" s="18"/>
+      <c r="E152" s="17"/>
+      <c r="F152" s="57" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="16">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="17"/>
+      <c r="B153" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" s="18"/>
+      <c r="D153" s="18"/>
+      <c r="E153" s="17"/>
+      <c r="F153" s="57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="17"/>
+      <c r="B154" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C154" s="18"/>
+      <c r="D154" s="18"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="17"/>
+      <c r="B155" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="18"/>
+      <c r="D155" s="18"/>
+      <c r="E155" s="17"/>
+      <c r="F155" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="16">
         <v>35</v>
       </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16">
-        <v>5</v>
-      </c>
-      <c r="E148" s="16">
+      <c r="B156" s="12"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16">
+        <v>5</v>
+      </c>
+      <c r="E156" s="16">
         <v>35</v>
       </c>
-      <c r="F148" s="12" t="s">
+      <c r="F156" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="54"/>
-      <c r="B149" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C149" s="54"/>
-      <c r="D149" s="54"/>
-      <c r="E149" s="54"/>
-      <c r="F149" s="58" t="s">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="54"/>
+      <c r="B157" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C157" s="54"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="58" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="54"/>
-      <c r="B150" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="54"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="58" t="s">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="54"/>
+      <c r="B158" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="54"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="58" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="54"/>
-      <c r="B151" s="58" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="54"/>
-      <c r="D151" s="54"/>
-      <c r="E151" s="54"/>
-      <c r="F151" s="58" t="s">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="54"/>
+      <c r="B159" s="58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159" s="54"/>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54"/>
+      <c r="F159" s="58" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="16">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="16">
         <v>36</v>
       </c>
-      <c r="B152" s="12"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16">
-        <v>5</v>
-      </c>
-      <c r="E152" s="16">
+      <c r="B160" s="12"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16">
+        <v>5</v>
+      </c>
+      <c r="E160" s="16">
         <v>36</v>
       </c>
-      <c r="F152" s="12" t="s">
+      <c r="F160" s="12" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="54"/>
-      <c r="B153" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="54"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="58" t="s">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="54"/>
+      <c r="B161" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C161" s="54"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="58" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11">
-        <f>SUM(C2:C131)</f>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="13">
+        <v>37</v>
+      </c>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14">
+        <v>2</v>
+      </c>
+      <c r="D162" s="14">
+        <v>5</v>
+      </c>
+      <c r="E162" s="13">
+        <v>37</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="17"/>
+      <c r="B163" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C163" s="18"/>
+      <c r="D163" s="18"/>
+      <c r="E163" s="17"/>
+      <c r="F163" s="57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="17"/>
+      <c r="B164" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="18"/>
+      <c r="D164" s="18"/>
+      <c r="E164" s="17"/>
+      <c r="F164" s="57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="17"/>
+      <c r="B165" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165" s="18"/>
+      <c r="D165" s="18"/>
+      <c r="E165" s="17"/>
+      <c r="F165" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11">
+        <f>SUM(C2:C136)</f>
         <v>141</v>
       </c>
-      <c r="D154" s="11">
-        <f>SUM(D2:D131)</f>
+      <c r="D166" s="11">
+        <f>SUM(D2:D136)</f>
         <v>870</v>
       </c>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="11"/>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3125,7 +3293,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3346,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3519,6 +3687,60 @@
         <v>158</v>
       </c>
     </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>37</v>
+      </c>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14">
+        <v>2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>5</v>
+      </c>
+      <c r="E13" s="13">
+        <v>37</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="57" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17"/>
+      <c r="B15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="57" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3526,143 +3748,257 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A10:F31"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="113" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="132.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+    <row r="1" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C1" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D1" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="49" t="s">
+      <c r="F1" s="49" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="13">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14">
+        <v>8</v>
+      </c>
+      <c r="D2" s="14">
+        <v>20</v>
+      </c>
+      <c r="E2" s="13">
+        <v>22</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="57" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+      <c r="B4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="57" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="57" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+      <c r="B8" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="57" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="57" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>23</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
+        <v>25</v>
+      </c>
+      <c r="E10" s="13">
+        <v>23</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>22</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14">
-        <v>8</v>
-      </c>
-      <c r="D11" s="14">
-        <v>20</v>
-      </c>
-      <c r="E11" s="13">
-        <v>22</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>120</v>
+      <c r="A11" s="17"/>
+      <c r="B11" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="57" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="18" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" s="18"/>
       <c r="D12" s="18"/>
       <c r="E12" s="17"/>
       <c r="F12" s="57" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="17"/>
       <c r="F13" s="57" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
       <c r="E14" s="17"/>
       <c r="F14" s="57" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C15" s="18"/>
       <c r="D15" s="18"/>
       <c r="E15" s="17"/>
       <c r="F15" s="57" t="s">
-        <v>124</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="18" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
       <c r="E16" s="17"/>
       <c r="F16" s="57" t="s">
-        <v>125</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="18" t="s">
-        <v>57</v>
+        <v>137</v>
       </c>
       <c r="C17" s="18"/>
       <c r="D17" s="18"/>
       <c r="E17" s="17"/>
       <c r="F17" s="57" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B18" s="14"/>
       <c r="C18" s="14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D18" s="14">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E18" s="13">
-        <v>23</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>127</v>
+        <v>33</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -3674,7 +4010,7 @@
       <c r="D19" s="18"/>
       <c r="E19" s="17"/>
       <c r="F19" s="57" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,7 +4022,7 @@
       <c r="D20" s="18"/>
       <c r="E20" s="17"/>
       <c r="F20" s="57" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -3698,139 +4034,121 @@
       <c r="D21" s="18"/>
       <c r="E21" s="17"/>
       <c r="F21" s="57" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>33</v>
-      </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14">
-        <v>8</v>
-      </c>
-      <c r="D22" s="14">
-        <v>20</v>
-      </c>
-      <c r="E22" s="13">
-        <v>33</v>
-      </c>
-      <c r="F22" s="27" t="s">
-        <v>144</v>
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="57" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C23" s="18"/>
       <c r="D23" s="18"/>
       <c r="E23" s="17"/>
       <c r="F23" s="57" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="57" t="s">
-        <v>122</v>
+      <c r="A24" s="13">
+        <v>34</v>
+      </c>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14">
+        <v>5</v>
+      </c>
+      <c r="D24" s="14">
+        <v>25</v>
+      </c>
+      <c r="E24" s="13">
+        <v>34</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
       <c r="B25" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="17"/>
       <c r="F25" s="57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
       <c r="B26" s="18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C26" s="18"/>
       <c r="D26" s="18"/>
       <c r="E26" s="17"/>
       <c r="F26" s="57" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
       <c r="B27" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
       <c r="E27" s="17"/>
       <c r="F27" s="57" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>34</v>
-      </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14">
-        <v>5</v>
-      </c>
-      <c r="D28" s="14">
-        <v>25</v>
-      </c>
-      <c r="E28" s="13">
-        <v>34</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>149</v>
+      <c r="A28" s="17"/>
+      <c r="B28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="57" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="17"/>
       <c r="B29" s="18" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="17"/>
       <c r="F29" s="57" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="57" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="57" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="160">
   <si>
     <t>ID</t>
   </si>
@@ -466,6 +466,9 @@
     <t>On doit recevoir une notification lorsqu'on est dans un rayon de 25 m comme sur android</t>
   </si>
   <si>
+    <t>Les dépendaces pour compatibilité firebase firestore sur iOS doivent fonctionner</t>
+  </si>
+  <si>
     <t>On doit pouvoir recevoir une notification même lorsque l'app est en background</t>
   </si>
   <si>
@@ -512,15 +515,6 @@
   </si>
   <si>
     <t>Lorsque la notification est appuyée, on doit faire un zoom sur la position de l'utilisateur si il est toujours dans un rayon de 25m d'une sculpture</t>
-  </si>
-  <si>
-    <t>On doit avoir accès aux informations sur les sculptures</t>
-  </si>
-  <si>
-    <t>On doit avoir accès aux informations sur les collaborateurs</t>
-  </si>
-  <si>
-    <t>On doit avoir accès aux informations sur les nouvelles</t>
   </si>
 </sst>
 </file>
@@ -1035,10 +1029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F156"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124"/>
+    <sheetView topLeftCell="A120" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F136" sqref="F136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2565,7 +2559,7 @@
       <c r="D113" s="18"/>
       <c r="E113" s="18"/>
       <c r="F113" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -2689,7 +2683,7 @@
       <c r="D122" s="18"/>
       <c r="E122" s="18"/>
       <c r="F122" s="58" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -2701,49 +2695,53 @@
       <c r="D123" s="18"/>
       <c r="E123" s="18"/>
       <c r="F123" s="58" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="17"/>
-      <c r="B124" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C124" s="18"/>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="58" t="s">
-        <v>160</v>
+      <c r="A124" s="13">
+        <v>30</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14">
+        <v>1</v>
+      </c>
+      <c r="D124" s="14">
+        <v>10</v>
+      </c>
+      <c r="E124" s="14">
+        <v>30</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
       <c r="B125" s="18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
       <c r="E125" s="18"/>
-      <c r="F125" s="58" t="s">
-        <v>161</v>
+      <c r="F125" s="10" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="13">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B126" s="14"/>
-      <c r="C126" s="14">
-        <v>1</v>
-      </c>
+      <c r="C126" s="14"/>
       <c r="D126" s="14">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E126" s="14">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F126" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -2755,366 +2753,339 @@
       <c r="D127" s="18"/>
       <c r="E127" s="18"/>
       <c r="F127" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="13">
-        <v>31</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="14">
-        <v>20</v>
-      </c>
-      <c r="E128" s="14">
-        <v>31</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>100</v>
+      <c r="A128" s="17"/>
+      <c r="B128" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="18"/>
+      <c r="D128" s="18"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="17"/>
       <c r="B129" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
       <c r="E129" s="18"/>
       <c r="F129" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="17"/>
-      <c r="B130" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="18"/>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="10" t="s">
-        <v>94</v>
+      <c r="A130" s="13">
+        <v>32</v>
+      </c>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14">
+        <v>8</v>
+      </c>
+      <c r="D130" s="14">
+        <v>35</v>
+      </c>
+      <c r="E130" s="14">
+        <v>32</v>
+      </c>
+      <c r="F130" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="17"/>
       <c r="B131" s="18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="10" t="s">
-        <v>102</v>
+      <c r="E131" s="17"/>
+      <c r="F131" s="58" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="13">
-        <v>32</v>
-      </c>
-      <c r="B132" s="14"/>
-      <c r="C132" s="14">
-        <v>8</v>
-      </c>
-      <c r="D132" s="14">
-        <v>35</v>
-      </c>
-      <c r="E132" s="14">
-        <v>32</v>
-      </c>
-      <c r="F132" s="12" t="s">
-        <v>103</v>
+      <c r="A132" s="17"/>
+      <c r="B132" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="18"/>
+      <c r="D132" s="18"/>
+      <c r="E132" s="18"/>
+      <c r="F132" s="58" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="17"/>
       <c r="B133" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
-      <c r="E133" s="17"/>
+      <c r="E133" s="18"/>
       <c r="F133" s="58" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="17"/>
       <c r="B134" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
       <c r="E134" s="18"/>
       <c r="F134" s="58" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
       <c r="B135" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
       <c r="E135" s="18"/>
       <c r="F135" s="58" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="17"/>
-      <c r="B136" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C136" s="18"/>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="58" t="s">
-        <v>157</v>
+      <c r="A136" s="13">
+        <v>33</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14">
+        <v>8</v>
+      </c>
+      <c r="D136" s="14">
+        <v>20</v>
+      </c>
+      <c r="E136" s="13">
+        <v>33</v>
+      </c>
+      <c r="F136" s="27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
       <c r="B137" s="18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="58" t="s">
-        <v>158</v>
+      <c r="E137" s="17"/>
+      <c r="F137" s="57" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="13">
-        <v>33</v>
-      </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="14">
-        <v>8</v>
-      </c>
-      <c r="D138" s="14">
-        <v>20</v>
-      </c>
-      <c r="E138" s="13">
-        <v>33</v>
-      </c>
-      <c r="F138" s="27" t="s">
-        <v>144</v>
+      <c r="A138" s="17"/>
+      <c r="B138" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="18"/>
+      <c r="D138" s="18"/>
+      <c r="E138" s="17"/>
+      <c r="F138" s="57" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="17"/>
       <c r="B139" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
       <c r="E139" s="17"/>
       <c r="F139" s="57" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
       <c r="B140" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
       <c r="E140" s="17"/>
       <c r="F140" s="57" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C141" s="18"/>
       <c r="D141" s="18"/>
       <c r="E141" s="17"/>
       <c r="F141" s="57" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="17"/>
-      <c r="B142" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C142" s="18"/>
-      <c r="D142" s="18"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="57" t="s">
-        <v>147</v>
+      <c r="A142" s="13">
+        <v>34</v>
+      </c>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14">
+        <v>5</v>
+      </c>
+      <c r="D142" s="14">
+        <v>25</v>
+      </c>
+      <c r="E142" s="13">
+        <v>34</v>
+      </c>
+      <c r="F142" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
       <c r="B143" s="18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="17"/>
       <c r="F143" s="57" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="13">
-        <v>34</v>
-      </c>
-      <c r="B144" s="14"/>
-      <c r="C144" s="14">
-        <v>5</v>
-      </c>
-      <c r="D144" s="14">
-        <v>25</v>
-      </c>
-      <c r="E144" s="13">
-        <v>34</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>149</v>
+      <c r="A144" s="17"/>
+      <c r="B144" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="18"/>
+      <c r="D144" s="18"/>
+      <c r="E144" s="17"/>
+      <c r="F144" s="57" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="17"/>
       <c r="B145" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" s="18"/>
       <c r="D145" s="18"/>
       <c r="E145" s="17"/>
       <c r="F145" s="57" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="17"/>
-      <c r="B146" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="18"/>
-      <c r="D146" s="18"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="57" t="s">
-        <v>151</v>
+      <c r="A146" s="16">
+        <v>35</v>
+      </c>
+      <c r="B146" s="12"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16">
+        <v>5</v>
+      </c>
+      <c r="E146" s="16">
+        <v>35</v>
+      </c>
+      <c r="F146" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="17"/>
-      <c r="B147" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C147" s="18"/>
-      <c r="D147" s="18"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="57" t="s">
-        <v>152</v>
+      <c r="A147" s="54"/>
+      <c r="B147" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="C147" s="54"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="58" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="16">
-        <v>35</v>
-      </c>
-      <c r="B148" s="12"/>
-      <c r="C148" s="16"/>
-      <c r="D148" s="16">
-        <v>5</v>
-      </c>
-      <c r="E148" s="16">
-        <v>35</v>
-      </c>
-      <c r="F148" s="12" t="s">
-        <v>98</v>
+      <c r="A148" s="54"/>
+      <c r="B148" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="54"/>
+      <c r="D148" s="54"/>
+      <c r="E148" s="54"/>
+      <c r="F148" s="58" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="54"/>
       <c r="B149" s="58" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C149" s="54"/>
       <c r="D149" s="54"/>
       <c r="E149" s="54"/>
       <c r="F149" s="58" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="54"/>
-      <c r="B150" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="54"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="58" t="s">
-        <v>77</v>
+      <c r="A150" s="16">
+        <v>36</v>
+      </c>
+      <c r="B150" s="12"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16">
+        <v>5</v>
+      </c>
+      <c r="E150" s="16">
+        <v>36</v>
+      </c>
+      <c r="F150" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="54"/>
       <c r="B151" s="58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" s="54"/>
       <c r="D151" s="54"/>
       <c r="E151" s="54"/>
       <c r="F151" s="58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="16">
-        <v>36</v>
-      </c>
-      <c r="B152" s="12"/>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16">
-        <v>5</v>
-      </c>
-      <c r="E152" s="16">
-        <v>36</v>
-      </c>
-      <c r="F152" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="54"/>
-      <c r="B153" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="C153" s="54"/>
-      <c r="D153" s="54"/>
-      <c r="E153" s="54"/>
-      <c r="F153" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="11"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="11">
-        <f>SUM(C2:C131)</f>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11">
+        <f>SUM(C2:C129)</f>
         <v>141</v>
       </c>
-      <c r="D154" s="11">
-        <f>SUM(D2:D131)</f>
+      <c r="D155" s="11">
+        <f>SUM(D2:D129)</f>
         <v>870</v>
       </c>
-      <c r="E154" s="11"/>
-      <c r="F154" s="11"/>
-    </row>
-    <row r="155" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3324,7 +3295,7 @@
         <v>36</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -3336,7 +3307,7 @@
       <c r="D15" s="54"/>
       <c r="E15" s="54"/>
       <c r="F15" s="58" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3346,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3402,7 +3373,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
       <c r="F3" s="58" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3414,109 +3385,85 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
       <c r="F4" s="58" t="s">
-        <v>159</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="58" t="s">
-        <v>160</v>
+      <c r="A5" s="13">
+        <v>32</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14">
+        <v>8</v>
+      </c>
+      <c r="D5" s="14">
+        <v>35</v>
+      </c>
+      <c r="E5" s="14">
+        <v>32</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="18" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="58" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
-        <v>32</v>
-      </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14">
-        <v>8</v>
-      </c>
-      <c r="D7" s="14">
-        <v>35</v>
-      </c>
-      <c r="E7" s="14">
-        <v>32</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>103</v>
+      <c r="A7" s="17"/>
+      <c r="B7" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="58" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="17"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="58" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9" s="18"/>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="58" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="17"/>
       <c r="B10" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
       <c r="F10" s="58" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="58" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="58" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -3529,7 +3476,7 @@
   <dimension ref="A10:F31"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="F22" sqref="F22:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3716,7 +3663,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -3728,7 +3675,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="17"/>
       <c r="F23" s="57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -3752,7 +3699,7 @@
       <c r="D25" s="18"/>
       <c r="E25" s="17"/>
       <c r="F25" s="57" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3764,7 +3711,7 @@
       <c r="D26" s="18"/>
       <c r="E26" s="17"/>
       <c r="F26" s="57" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -3776,7 +3723,7 @@
       <c r="D27" s="18"/>
       <c r="E27" s="17"/>
       <c r="F27" s="57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3794,7 +3741,7 @@
         <v>34</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3806,7 +3753,7 @@
       <c r="D29" s="18"/>
       <c r="E29" s="17"/>
       <c r="F29" s="57" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3818,7 +3765,7 @@
       <c r="D30" s="18"/>
       <c r="E30" s="17"/>
       <c r="F30" s="57" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3830,7 +3777,7 @@
       <c r="D31" s="18"/>
       <c r="E31" s="17"/>
       <c r="F31" s="57" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Backlog.xlsx
+++ b/Backlog.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\Projet\Projet-ESP-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\ESP\Projet-ESP-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11460" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="169">
   <si>
     <t>ID</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>Si confirmé, supprimer les informations de la base de données</t>
+  </si>
+  <si>
+    <t>En tant qu'utilisateur, je veux que la carte soit fonctionnel sur iOS afin de pouvoir utiliser l'application sur iphone</t>
   </si>
 </sst>
 </file>
@@ -3292,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3336,7 +3339,7 @@
         <v>28</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>92</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3516,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
